--- a/App_View/wwwroot/excel/template.xlsx
+++ b/App_View/wwwroot/excel/template.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27002"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27004"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="60" documentId="11_92480E3D80EBD8D2623DC6FA873E8C18510380D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5B226AA-84BC-48C7-9084-F5D7DE072E24}"/>
+  <xr:revisionPtr revIDLastSave="216" documentId="11_92480E3D80EBD8D2623DC6FA873E8C18510380D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAEBADFD-1BF9-4503-8818-33F7BB21B948}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="54">
   <si>
     <t>Tên SP</t>
   </si>
@@ -75,32 +75,128 @@
     <t>Ảnh</t>
   </si>
   <si>
-    <t>Atrbuti</t>
+    <t>Running Shoes</t>
   </si>
   <si>
     <t>Adidas</t>
   </si>
   <si>
-    <t>Việt Nam</t>
-  </si>
-  <si>
-    <t>Vải</t>
-  </si>
-  <si>
-    <t>Giầy Adidas</t>
-  </si>
-  <si>
-    <t>Đế mềm</t>
-  </si>
-  <si>
-    <t>yellow</t>
+    <t>Đức</t>
+  </si>
+  <si>
+    <t>Da</t>
+  </si>
+  <si>
+    <t>Giày chạy bộ</t>
+  </si>
+  <si>
+    <t>Đế đàn hồi</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>Duramo10_1.png,Duramo10_2.png,Duramo10_3.png,Duramo10_4.png</t>
+  </si>
+  <si>
+    <t>RIVALRY 86 LOW</t>
+  </si>
+  <si>
+    <t>Giày thể thao</t>
+  </si>
+  <si>
+    <t>Đế phẳng</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>RIVALRY1.png,RIVALRY2.png,RIVALRY3.png,RIVALRY4.png</t>
+  </si>
+  <si>
+    <t>DURAMO SPEED</t>
+  </si>
+  <si>
+    <t>Đế đinh</t>
+  </si>
+  <si>
+    <t>DURAMO_SPEED_black1.png,DURAMO_SPEED_black2.png,DURAMO_SPEED_black3.png,DURAMO_SPEED_black4.png</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>DURAMO_SPEED_blue1.png,DURAMO_SPEED_blue2.png,DURAMO_SPEED_blue3.png,DURAMO_SPEED_blue4.png</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>DURAMO_SPEED_green1.png,DURAMO_SPEED_green2.png,DURAMO_SPEED_green4.png</t>
+  </si>
+  <si>
+    <t>HEAWYN</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>HEAWYN1.png,HEAWYN2.png,HEAWYN3.png,HEAWYN4.png</t>
+  </si>
+  <si>
+    <t>GALAXY 6</t>
+  </si>
+  <si>
+    <t>Chạy</t>
+  </si>
+  <si>
+    <t>GALAXY6_1.png,GALAXY6_2.png,GALAXY6_3.png,GALAXY6_4.png</t>
+  </si>
+  <si>
+    <t>GALAXY6_blue1.png,GALAXY6_blue2.png,GALAXY6_blue3.png,GALAXY6_blue4.png</t>
+  </si>
+  <si>
+    <t>ADICROSS LOW</t>
+  </si>
+  <si>
+    <t>Đánh gold</t>
+  </si>
+  <si>
+    <t>ADICROSS_LOW_1.png,ADICROSS_LOW_2.png,ADICROSS_LOW_3.png,ADICROSS_LOW_4.png</t>
+  </si>
+  <si>
+    <t>RIVALRY LOW</t>
+  </si>
+  <si>
+    <t>RIVALRY_LOW1.png,RIVALRY_LOW2.png,RIVALRY_LOW3.png,RIVALRY_LOW4.png</t>
+  </si>
+  <si>
+    <t>Impact 4</t>
+  </si>
+  <si>
+    <t>Nike</t>
+  </si>
+  <si>
+    <t>Giày bóng rổ</t>
+  </si>
+  <si>
+    <t>Impact_4_1.png,Impact_4_2.png,Impact_4_3.png,Impact_4_4.png</t>
+  </si>
+  <si>
+    <t>Air Max SC Leather</t>
+  </si>
+  <si>
+    <t>Men's Shoes</t>
+  </si>
+  <si>
+    <t>Air_Max_SC_Leather1.png,Air_Max_SC_Leather2.png,Air_Max_SC_Leather3.png,Air_Max_SC_Leather4.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +211,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF111111"/>
+      <name val="Helvetica Now Text Medium"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -137,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -145,6 +253,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -459,27 +569,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="107.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75">
@@ -554,11 +664,11 @@
       <c r="H2" s="2">
         <v>32</v>
       </c>
-      <c r="I2" s="2">
-        <v>50000</v>
+      <c r="I2">
+        <v>2000000</v>
       </c>
       <c r="J2" s="2">
-        <v>60000</v>
+        <v>2100000</v>
       </c>
       <c r="K2" s="2">
         <v>500</v>
@@ -571,6 +681,526 @@
       </c>
       <c r="N2" s="2" t="b">
         <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3">
+        <v>31</v>
+      </c>
+      <c r="I3">
+        <v>2000000</v>
+      </c>
+      <c r="J3">
+        <v>2900000</v>
+      </c>
+      <c r="K3" s="2">
+        <v>500</v>
+      </c>
+      <c r="L3" s="2">
+        <v>500</v>
+      </c>
+      <c r="M3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
+      </c>
+      <c r="I4">
+        <v>2400000</v>
+      </c>
+      <c r="J4">
+        <v>2500000</v>
+      </c>
+      <c r="K4">
+        <v>200</v>
+      </c>
+      <c r="L4">
+        <v>100</v>
+      </c>
+      <c r="M4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5">
+        <v>31</v>
+      </c>
+      <c r="I5">
+        <v>2400000</v>
+      </c>
+      <c r="J5">
+        <v>2500000</v>
+      </c>
+      <c r="K5">
+        <v>200</v>
+      </c>
+      <c r="L5">
+        <v>100</v>
+      </c>
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6">
+        <v>32</v>
+      </c>
+      <c r="I6">
+        <v>2400000</v>
+      </c>
+      <c r="J6">
+        <v>2500000</v>
+      </c>
+      <c r="K6">
+        <v>200</v>
+      </c>
+      <c r="L6">
+        <v>100</v>
+      </c>
+      <c r="M6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" t="b">
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7">
+        <v>33</v>
+      </c>
+      <c r="I7">
+        <v>2400000</v>
+      </c>
+      <c r="J7">
+        <v>26000000</v>
+      </c>
+      <c r="K7">
+        <v>200</v>
+      </c>
+      <c r="L7">
+        <v>100</v>
+      </c>
+      <c r="M7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" t="b">
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="18">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8">
+        <v>33</v>
+      </c>
+      <c r="I8">
+        <v>2400000</v>
+      </c>
+      <c r="J8">
+        <v>26000000</v>
+      </c>
+      <c r="K8">
+        <v>200</v>
+      </c>
+      <c r="L8">
+        <v>100</v>
+      </c>
+      <c r="M8" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="18">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9">
+        <v>33</v>
+      </c>
+      <c r="I9">
+        <v>2400000</v>
+      </c>
+      <c r="J9">
+        <v>2700000</v>
+      </c>
+      <c r="K9">
+        <v>200</v>
+      </c>
+      <c r="L9">
+        <v>100</v>
+      </c>
+      <c r="M9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="18">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10">
+        <v>33</v>
+      </c>
+      <c r="I10">
+        <v>2400000</v>
+      </c>
+      <c r="J10">
+        <v>28900000</v>
+      </c>
+      <c r="K10">
+        <v>200</v>
+      </c>
+      <c r="L10">
+        <v>100</v>
+      </c>
+      <c r="M10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="18">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11">
+        <v>33</v>
+      </c>
+      <c r="I11">
+        <v>2400000</v>
+      </c>
+      <c r="J11">
+        <v>28900000</v>
+      </c>
+      <c r="K11">
+        <v>200</v>
+      </c>
+      <c r="L11">
+        <v>100</v>
+      </c>
+      <c r="M11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N11" t="b">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="18">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12">
+        <v>33</v>
+      </c>
+      <c r="I12">
+        <v>2400000</v>
+      </c>
+      <c r="J12">
+        <v>28900000</v>
+      </c>
+      <c r="K12">
+        <v>200</v>
+      </c>
+      <c r="L12">
+        <v>100</v>
+      </c>
+      <c r="M12" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12" t="b">
+        <v>1</v>
+      </c>
+      <c r="O12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.75">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13">
+        <v>33</v>
+      </c>
+      <c r="I13">
+        <v>2400000</v>
+      </c>
+      <c r="J13">
+        <v>28900000</v>
+      </c>
+      <c r="K13">
+        <v>200</v>
+      </c>
+      <c r="L13">
+        <v>100</v>
+      </c>
+      <c r="M13" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/App_View/wwwroot/excel/template.xlsx
+++ b/App_View/wwwroot/excel/template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27004"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="216" documentId="11_92480E3D80EBD8D2623DC6FA873E8C18510380D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAEBADFD-1BF9-4503-8818-33F7BB21B948}"/>
+  <xr:revisionPtr revIDLastSave="697" documentId="11_92480E3D80EBD8D2623DC6FA873E8C18510380D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3BCBC7F-2FC6-4D59-8CAA-5CBBDC8586CF}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,6 +12,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="79">
   <si>
     <t>Tên SP</t>
   </si>
@@ -108,6 +111,12 @@
     <t>Đế phẳng</t>
   </si>
   <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>RIVALRY_86_LOW_green1.png,RIVALRY_86_LOW_green2.png,RIVALRY_86_LOW_green3.png,RIVALRY_86_LOW_green4.png</t>
+  </si>
+  <si>
     <t>orange</t>
   </si>
   <si>
@@ -129,9 +138,6 @@
     <t>DURAMO_SPEED_blue1.png,DURAMO_SPEED_blue2.png,DURAMO_SPEED_blue3.png,DURAMO_SPEED_blue4.png</t>
   </si>
   <si>
-    <t>green</t>
-  </si>
-  <si>
     <t>DURAMO_SPEED_green1.png,DURAMO_SPEED_green2.png,DURAMO_SPEED_green4.png</t>
   </si>
   <si>
@@ -190,6 +196,78 @@
   </si>
   <si>
     <t>Air_Max_SC_Leather1.png,Air_Max_SC_Leather2.png,Air_Max_SC_Leather3.png,Air_Max_SC_Leather4.png</t>
+  </si>
+  <si>
+    <t>Air Max 90</t>
+  </si>
+  <si>
+    <t>Trung Quốc</t>
+  </si>
+  <si>
+    <t>Air_Max _90_black_1.png,Air_Max _90_black_2.png,Air_Max _90_black_3.png,Air_Max _90_black_4.png</t>
+  </si>
+  <si>
+    <t>Air_Max _90_white_1.png,Air_Max _90_white_2.png,Air_Max _90_white_3.png,Air_Max _90_white_4.png</t>
+  </si>
+  <si>
+    <t>Dunk Low Unlocked By You</t>
+  </si>
+  <si>
+    <t>Việt Nam</t>
+  </si>
+  <si>
+    <t>Custom Shoes</t>
+  </si>
+  <si>
+    <t>Dunk_Low_Unlocked_By_You_blu1.png,Dunk_Low_Unlocked_By_You_blu2.png,Dunk_Low_Unlocked_By_You_blu3.png,Dunk_Low_Unlocked_By_You_blu4.png</t>
+  </si>
+  <si>
+    <t>pink</t>
+  </si>
+  <si>
+    <t>Dunk_Low_Unlocked_By_You_pink1.png,Dunk_Low_Unlocked_By_You_pink2.png,Dunk_Low_Unlocked_By_You_pink3.png,Dunk_Low_Unlocked_By_You_pink4.png</t>
+  </si>
+  <si>
+    <t>Dunk_Low_Unlocked_black1.png,Dunk_Low_Unlocked_black2.png,Dunk_Low_Unlocked_black3.png,Dunk_Low_Unlocked_black4.png</t>
+  </si>
+  <si>
+    <t>Air Force 1 '07 WB</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>Air_Force_WB_brown1.png,Air_Force_WB_brown2.png,Air_Force_WB_brown3.png,Air_Force_WB_brown4.png</t>
+  </si>
+  <si>
+    <t>Go FlyEase</t>
+  </si>
+  <si>
+    <t>Go_FlyEase_white1.png,Go_FlyEase_white2.png,Go_FlyEase_white3.png,Go_FlyEase_white4.png</t>
+  </si>
+  <si>
+    <t>Go_FlyEase_black1.png,Go_FlyEase_black2.png,Go_FlyEase_black3.png,Go_FlyEase_black4.png</t>
+  </si>
+  <si>
+    <t>Jordan One Take 4 PF</t>
+  </si>
+  <si>
+    <t>Jordan_One_Take_4_PF_blue1.png,Jordan_One_Take_4_PF_blue2.png,Jordan_One_Take_4_PF_blue3.png,Jordan_One_Take_4_PF_blue4.png</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>Jordan_One_Take_4_PF_red1.png,Jordan_One_Take_4_PF_red2.png,Jordan_One_Take_4_PF_red3.png,Jordan_One_Take_4_PF_red4.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Blazer Mid '77 Vintage</t>
+  </si>
+  <si>
+    <t>Blazer_Mid_77_Vintage_white1.png,Blazer_Mid_77_Vintage_white2.png,Blazer_Mid_77_Vintage_white3.png,Blazer_Mid_77_Vintage_white4.png</t>
+  </si>
+  <si>
+    <t>Blazer_Mid_77_Vintage_black_1.png,Blazer_Mid_77_Vintage_black_2.png,Blazer_Mid_77_Vintage_black_3.png,Blazer_Mid_77_Vintage_black_4.png</t>
   </si>
 </sst>
 </file>
@@ -245,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -253,8 +331,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -569,27 +658,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="107.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="3"/>
+    <col min="15" max="15" width="150.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75">
@@ -664,17 +755,17 @@
       <c r="H2" s="2">
         <v>32</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>2000000</v>
       </c>
-      <c r="J2" s="2">
-        <v>2100000</v>
+      <c r="J2" s="3">
+        <v>1100000</v>
       </c>
       <c r="K2" s="2">
-        <v>500</v>
+        <v>4</v>
       </c>
       <c r="L2" s="2">
-        <v>500</v>
+        <v>107</v>
       </c>
       <c r="M2" s="2" t="b">
         <v>1</v>
@@ -682,13 +773,13 @@
       <c r="N2" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A3" t="s">
-        <v>23</v>
+    <row r="3" spans="1:15">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>16</v>
@@ -699,29 +790,29 @@
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3">
-        <v>31</v>
-      </c>
-      <c r="I3">
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2">
+        <v>33</v>
+      </c>
+      <c r="I3" s="3">
         <v>2000000</v>
       </c>
-      <c r="J3">
-        <v>2900000</v>
+      <c r="J3" s="3">
+        <v>2500000</v>
       </c>
       <c r="K3" s="2">
-        <v>500</v>
+        <v>62</v>
       </c>
       <c r="L3" s="2">
-        <v>500</v>
+        <v>357</v>
       </c>
       <c r="M3" s="2" t="b">
         <v>1</v>
@@ -729,13 +820,13 @@
       <c r="N3" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="O3" t="s">
-        <v>27</v>
+      <c r="O3" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" t="s">
-        <v>28</v>
+      <c r="A4" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>16</v>
@@ -746,43 +837,43 @@
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H4">
-        <v>30</v>
-      </c>
-      <c r="I4">
-        <v>2400000</v>
-      </c>
-      <c r="J4">
-        <v>2500000</v>
-      </c>
-      <c r="K4">
-        <v>200</v>
-      </c>
-      <c r="L4">
-        <v>100</v>
-      </c>
-      <c r="M4" t="b">
-        <v>1</v>
-      </c>
-      <c r="N4" t="b">
-        <v>1</v>
-      </c>
-      <c r="O4" t="s">
-        <v>30</v>
+      <c r="H4" s="2">
+        <v>34</v>
+      </c>
+      <c r="I4" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="J4" s="3">
+        <v>5000000</v>
+      </c>
+      <c r="K4" s="2">
+        <v>183</v>
+      </c>
+      <c r="L4" s="2">
+        <v>458</v>
+      </c>
+      <c r="M4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" t="s">
-        <v>28</v>
+      <c r="A5" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>16</v>
@@ -793,43 +884,43 @@
       <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5">
-        <v>31</v>
-      </c>
-      <c r="I5">
-        <v>2400000</v>
-      </c>
-      <c r="J5">
-        <v>2500000</v>
-      </c>
-      <c r="K5">
-        <v>200</v>
-      </c>
-      <c r="L5">
-        <v>100</v>
-      </c>
-      <c r="M5" t="b">
-        <v>1</v>
-      </c>
-      <c r="N5" t="b">
-        <v>1</v>
-      </c>
-      <c r="O5" t="s">
-        <v>32</v>
+      <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="2">
+        <v>35</v>
+      </c>
+      <c r="I5" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="J5" s="3">
+        <v>2800000</v>
+      </c>
+      <c r="K5" s="2">
+        <v>162</v>
+      </c>
+      <c r="L5" s="2">
+        <v>298</v>
+      </c>
+      <c r="M5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" t="s">
-        <v>28</v>
+      <c r="A6" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>16</v>
@@ -840,43 +931,43 @@
       <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6">
-        <v>32</v>
-      </c>
-      <c r="I6">
-        <v>2400000</v>
-      </c>
-      <c r="J6">
-        <v>2500000</v>
-      </c>
-      <c r="K6">
-        <v>200</v>
-      </c>
-      <c r="L6">
-        <v>100</v>
-      </c>
-      <c r="M6" t="b">
-        <v>1</v>
-      </c>
-      <c r="N6" t="b">
-        <v>1</v>
-      </c>
-      <c r="O6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" t="s">
-        <v>35</v>
+      <c r="F6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="2">
+        <v>36</v>
+      </c>
+      <c r="I6" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="J6" s="3">
+        <v>4200000</v>
+      </c>
+      <c r="K6" s="2">
+        <v>178</v>
+      </c>
+      <c r="L6" s="2">
+        <v>111</v>
+      </c>
+      <c r="M6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>16</v>
@@ -887,43 +978,43 @@
       <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7">
-        <v>33</v>
-      </c>
-      <c r="I7">
-        <v>2400000</v>
-      </c>
-      <c r="J7">
-        <v>26000000</v>
-      </c>
-      <c r="K7">
-        <v>200</v>
-      </c>
-      <c r="L7">
-        <v>100</v>
-      </c>
-      <c r="M7" t="b">
-        <v>1</v>
-      </c>
-      <c r="N7" t="b">
-        <v>1</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="F7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="2">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="18">
-      <c r="A8" t="s">
-        <v>38</v>
+      <c r="I7" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1600000</v>
+      </c>
+      <c r="K7" s="2">
+        <v>149</v>
+      </c>
+      <c r="L7" s="2">
+        <v>442</v>
+      </c>
+      <c r="M7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>16</v>
@@ -935,42 +1026,42 @@
         <v>18</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8">
-        <v>33</v>
-      </c>
-      <c r="I8">
-        <v>2400000</v>
-      </c>
-      <c r="J8">
-        <v>26000000</v>
-      </c>
-      <c r="K8">
-        <v>200</v>
-      </c>
-      <c r="L8">
-        <v>100</v>
-      </c>
-      <c r="M8" t="b">
-        <v>1</v>
-      </c>
-      <c r="N8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="18">
-      <c r="A9" t="s">
-        <v>38</v>
+      <c r="I8" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2100000</v>
+      </c>
+      <c r="K8" s="2">
+        <v>49</v>
+      </c>
+      <c r="L8" s="2">
+        <v>110</v>
+      </c>
+      <c r="M8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>16</v>
@@ -982,42 +1073,42 @@
         <v>18</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9">
-        <v>33</v>
-      </c>
-      <c r="I9">
-        <v>2400000</v>
-      </c>
-      <c r="J9">
-        <v>2700000</v>
-      </c>
-      <c r="K9">
-        <v>200</v>
-      </c>
-      <c r="L9">
-        <v>100</v>
-      </c>
-      <c r="M9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="3">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="18">
-      <c r="A10" t="s">
-        <v>42</v>
+      <c r="I9" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2500000</v>
+      </c>
+      <c r="K9" s="2">
+        <v>26</v>
+      </c>
+      <c r="L9" s="2">
+        <v>292</v>
+      </c>
+      <c r="M9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>16</v>
@@ -1029,42 +1120,42 @@
         <v>18</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10">
-        <v>33</v>
-      </c>
-      <c r="I10">
-        <v>2400000</v>
-      </c>
-      <c r="J10">
-        <v>28900000</v>
-      </c>
-      <c r="K10">
-        <v>200</v>
-      </c>
-      <c r="L10">
-        <v>100</v>
-      </c>
-      <c r="M10" t="b">
-        <v>1</v>
-      </c>
-      <c r="N10" t="b">
-        <v>1</v>
-      </c>
-      <c r="O10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="18">
-      <c r="A11" t="s">
-        <v>45</v>
+        <v>24</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="3">
+        <v>42</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>4000000</v>
+      </c>
+      <c r="K10" s="2">
+        <v>184</v>
+      </c>
+      <c r="L10" s="2">
+        <v>398</v>
+      </c>
+      <c r="M10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>16</v>
@@ -1076,45 +1167,45 @@
         <v>18</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="3">
         <v>43</v>
       </c>
-      <c r="F11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11">
-        <v>33</v>
-      </c>
-      <c r="I11">
-        <v>2400000</v>
-      </c>
-      <c r="J11">
-        <v>28900000</v>
-      </c>
-      <c r="K11">
-        <v>200</v>
-      </c>
-      <c r="L11">
-        <v>100</v>
-      </c>
-      <c r="M11" t="b">
-        <v>1</v>
-      </c>
-      <c r="N11" t="b">
-        <v>1</v>
-      </c>
-      <c r="O11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="18">
-      <c r="A12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" t="s">
-        <v>48</v>
+      <c r="I11" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="J11" s="3">
+        <v>6000000</v>
+      </c>
+      <c r="K11" s="2">
+        <v>156</v>
+      </c>
+      <c r="L11" s="2">
+        <v>69</v>
+      </c>
+      <c r="M11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>17</v>
@@ -1123,45 +1214,45 @@
         <v>18</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12">
-        <v>33</v>
-      </c>
-      <c r="I12">
-        <v>2400000</v>
-      </c>
-      <c r="J12">
-        <v>28900000</v>
-      </c>
-      <c r="K12">
-        <v>200</v>
-      </c>
-      <c r="L12">
-        <v>100</v>
-      </c>
-      <c r="M12" t="b">
-        <v>1</v>
-      </c>
-      <c r="N12" t="b">
-        <v>1</v>
-      </c>
-      <c r="O12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15.75">
-      <c r="A13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" t="s">
-        <v>48</v>
+        <v>24</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="3">
+        <v>44</v>
+      </c>
+      <c r="I12" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="J12" s="3">
+        <v>5200000</v>
+      </c>
+      <c r="K12" s="2">
+        <v>123</v>
+      </c>
+      <c r="L12" s="2">
+        <v>407</v>
+      </c>
+      <c r="M12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>17</v>
@@ -1169,39 +1260,6184 @@
       <c r="D13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="3">
+        <v>40</v>
+      </c>
+      <c r="I13" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="J13" s="3">
+        <v>3400000</v>
+      </c>
+      <c r="K13" s="2">
+        <v>69</v>
+      </c>
+      <c r="L13" s="2">
+        <v>346</v>
+      </c>
+      <c r="M13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="3">
+        <v>41</v>
+      </c>
+      <c r="I14" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="J14" s="3">
+        <v>3400000</v>
+      </c>
+      <c r="K14" s="2">
+        <v>22</v>
+      </c>
+      <c r="L14" s="2">
+        <v>126</v>
+      </c>
+      <c r="M14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="3">
+        <v>42</v>
+      </c>
+      <c r="I15" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="J15" s="3">
+        <v>4800000</v>
+      </c>
+      <c r="K15" s="2">
+        <v>200</v>
+      </c>
+      <c r="L15" s="2">
+        <v>485</v>
+      </c>
+      <c r="M15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="3">
+        <v>43</v>
+      </c>
+      <c r="I16" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="J16" s="3">
+        <v>5000000</v>
+      </c>
+      <c r="K16" s="2">
+        <v>109</v>
+      </c>
+      <c r="L16" s="2">
+        <v>451</v>
+      </c>
+      <c r="M16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="3">
+        <v>44</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1400000</v>
+      </c>
+      <c r="K17" s="2">
+        <v>182</v>
+      </c>
+      <c r="L17" s="2">
+        <v>53</v>
+      </c>
+      <c r="M17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="3">
+        <v>45</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="K18" s="2">
+        <v>182</v>
+      </c>
+      <c r="L18" s="2">
+        <v>318</v>
+      </c>
+      <c r="M18" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N18" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="3">
+        <v>31</v>
+      </c>
+      <c r="I19" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="J19" s="3">
+        <v>5500000</v>
+      </c>
+      <c r="K19" s="2">
+        <v>47</v>
+      </c>
+      <c r="L19" s="2">
+        <v>318</v>
+      </c>
+      <c r="M19" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N19" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="3">
+        <v>32</v>
+      </c>
+      <c r="I20" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>2500000</v>
+      </c>
+      <c r="K20" s="2">
+        <v>38</v>
+      </c>
+      <c r="L20" s="2">
+        <v>500</v>
+      </c>
+      <c r="M20" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N20" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="3">
+        <v>33</v>
+      </c>
+      <c r="I21" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>4500000</v>
+      </c>
+      <c r="K21" s="2">
+        <v>131</v>
+      </c>
+      <c r="L21" s="2">
+        <v>348</v>
+      </c>
+      <c r="M21" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N21" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" s="3">
+        <v>34</v>
+      </c>
+      <c r="I22" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="J22" s="3">
+        <v>5800000</v>
+      </c>
+      <c r="K22" s="2">
+        <v>166</v>
+      </c>
+      <c r="L22" s="2">
+        <v>461</v>
+      </c>
+      <c r="M22" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N22" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" s="3">
+        <v>35</v>
+      </c>
+      <c r="I23" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>3700000</v>
+      </c>
+      <c r="K23" s="2">
+        <v>74</v>
+      </c>
+      <c r="L23" s="2">
+        <v>466</v>
+      </c>
+      <c r="M23" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N23" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" s="3">
+        <v>36</v>
+      </c>
+      <c r="I24" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>3200000</v>
+      </c>
+      <c r="K24" s="2">
+        <v>24</v>
+      </c>
+      <c r="L24" s="2">
+        <v>228</v>
+      </c>
+      <c r="M24" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N24" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" s="3">
+        <v>37</v>
+      </c>
+      <c r="I25" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="J25" s="3">
+        <v>1800000</v>
+      </c>
+      <c r="K25" s="2">
+        <v>140</v>
+      </c>
+      <c r="L25" s="2">
+        <v>423</v>
+      </c>
+      <c r="M25" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N25" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" s="3">
+        <v>38</v>
+      </c>
+      <c r="I26" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1700000</v>
+      </c>
+      <c r="K26" s="2">
+        <v>165</v>
+      </c>
+      <c r="L26" s="2">
+        <v>131</v>
+      </c>
+      <c r="M26" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N26" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="18">
+      <c r="A27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="3">
+        <v>33</v>
+      </c>
+      <c r="I27" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>4500000</v>
+      </c>
+      <c r="K27" s="2">
+        <v>12</v>
+      </c>
+      <c r="L27" s="2">
+        <v>415</v>
+      </c>
+      <c r="M27" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N27" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="18">
+      <c r="A28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="3">
+        <v>34</v>
+      </c>
+      <c r="I28" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="J28" s="3">
+        <v>4600000</v>
+      </c>
+      <c r="K28" s="2">
+        <v>26</v>
+      </c>
+      <c r="L28" s="2">
+        <v>81</v>
+      </c>
+      <c r="M28" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N28" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="18">
+      <c r="A29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="3">
+        <v>35</v>
+      </c>
+      <c r="I29" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="J29" s="3">
+        <v>3500000</v>
+      </c>
+      <c r="K29" s="2">
+        <v>33</v>
+      </c>
+      <c r="L29" s="2">
+        <v>430</v>
+      </c>
+      <c r="M29" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N29" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="18">
+      <c r="A30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="3">
+        <v>36</v>
+      </c>
+      <c r="I30" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="J30" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="K30" s="2">
+        <v>164</v>
+      </c>
+      <c r="L30" s="2">
+        <v>409</v>
+      </c>
+      <c r="M30" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N30" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="18">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="3">
+        <v>37</v>
+      </c>
+      <c r="I31" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="J31" s="3">
+        <v>3700000</v>
+      </c>
+      <c r="K31" s="2">
+        <v>32</v>
+      </c>
+      <c r="L31" s="2">
+        <v>124</v>
+      </c>
+      <c r="M31" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N31" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="18">
+      <c r="A32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" s="3">
+        <v>33</v>
+      </c>
+      <c r="I32" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>6000000</v>
+      </c>
+      <c r="K32" s="2">
+        <v>171</v>
+      </c>
+      <c r="L32" s="2">
+        <v>313</v>
+      </c>
+      <c r="M32" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N32" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="18">
+      <c r="A33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33" s="3">
+        <v>34</v>
+      </c>
+      <c r="I33" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>2200000</v>
+      </c>
+      <c r="K33" s="2">
+        <v>29</v>
+      </c>
+      <c r="L33" s="2">
+        <v>449</v>
+      </c>
+      <c r="M33" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N33" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="18">
+      <c r="A34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34" s="3">
+        <v>35</v>
+      </c>
+      <c r="I34" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="J34" s="3">
+        <v>1600000</v>
+      </c>
+      <c r="K34" s="2">
+        <v>111</v>
+      </c>
+      <c r="L34" s="2">
+        <v>26</v>
+      </c>
+      <c r="M34" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N34" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="18">
+      <c r="A35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" s="3">
+        <v>36</v>
+      </c>
+      <c r="I35" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1900000</v>
+      </c>
+      <c r="K35" s="2">
+        <v>51</v>
+      </c>
+      <c r="L35" s="2">
+        <v>94</v>
+      </c>
+      <c r="M35" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N35" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="18">
+      <c r="A36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" s="3">
+        <v>37</v>
+      </c>
+      <c r="I36" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="J36" s="3">
+        <v>5000000</v>
+      </c>
+      <c r="K36" s="2">
+        <v>149</v>
+      </c>
+      <c r="L36" s="2">
+        <v>387</v>
+      </c>
+      <c r="M36" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N36" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="18">
+      <c r="A37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H37" s="3">
+        <v>33</v>
+      </c>
+      <c r="I37" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="J37" s="3">
+        <v>5100000</v>
+      </c>
+      <c r="K37" s="2">
+        <v>149</v>
+      </c>
+      <c r="L37" s="2">
+        <v>199</v>
+      </c>
+      <c r="M37" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N37" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="18">
+      <c r="A38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H38" s="3">
+        <v>34</v>
+      </c>
+      <c r="I38" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="J38" s="3">
+        <v>2900000</v>
+      </c>
+      <c r="K38" s="2">
+        <v>113</v>
+      </c>
+      <c r="L38" s="2">
+        <v>375</v>
+      </c>
+      <c r="M38" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N38" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="18">
+      <c r="A39" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" s="3">
+        <v>35</v>
+      </c>
+      <c r="I39" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="J39" s="3">
+        <v>3400000</v>
+      </c>
+      <c r="K39" s="2">
+        <v>130</v>
+      </c>
+      <c r="L39" s="2">
+        <v>424</v>
+      </c>
+      <c r="M39" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N39" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="18">
+      <c r="A40" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H40" s="3">
+        <v>36</v>
+      </c>
+      <c r="I40" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="J40" s="3">
+        <v>4700000</v>
+      </c>
+      <c r="K40" s="2">
+        <v>46</v>
+      </c>
+      <c r="L40" s="2">
+        <v>152</v>
+      </c>
+      <c r="M40" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N40" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="18">
+      <c r="A41" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H41" s="3">
+        <v>37</v>
+      </c>
+      <c r="I41" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2500000</v>
+      </c>
+      <c r="K41" s="2">
+        <v>38</v>
+      </c>
+      <c r="L41" s="2">
+        <v>415</v>
+      </c>
+      <c r="M41" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N41" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="18">
+      <c r="A42" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H42" s="3">
+        <v>34</v>
+      </c>
+      <c r="I42" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="J42" s="3">
+        <v>4700000</v>
+      </c>
+      <c r="K42" s="2">
+        <v>135</v>
+      </c>
+      <c r="L42" s="2">
+        <v>267</v>
+      </c>
+      <c r="M42" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N42" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="18">
+      <c r="A43" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H43" s="3">
+        <v>35</v>
+      </c>
+      <c r="I43" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="J43" s="3">
+        <v>3300000</v>
+      </c>
+      <c r="K43" s="2">
+        <v>15</v>
+      </c>
+      <c r="L43" s="2">
+        <v>426</v>
+      </c>
+      <c r="M43" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N43" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="18">
+      <c r="A44" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H44" s="3">
+        <v>36</v>
+      </c>
+      <c r="I44" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="J44" s="3">
+        <v>4100000</v>
+      </c>
+      <c r="K44" s="2">
+        <v>87</v>
+      </c>
+      <c r="L44" s="2">
+        <v>36</v>
+      </c>
+      <c r="M44" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N44" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="18">
+      <c r="A45" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H45" s="3">
+        <v>37</v>
+      </c>
+      <c r="I45" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="J45" s="3">
+        <v>2900000</v>
+      </c>
+      <c r="K45" s="2">
+        <v>118</v>
+      </c>
+      <c r="L45" s="2">
+        <v>45</v>
+      </c>
+      <c r="M45" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N45" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="18">
+      <c r="A46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" s="3">
+        <v>34</v>
+      </c>
+      <c r="I46" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="J46" s="3">
+        <v>4700000</v>
+      </c>
+      <c r="K46" s="2">
+        <v>151</v>
+      </c>
+      <c r="L46" s="2">
+        <v>160</v>
+      </c>
+      <c r="M46" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N46" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="18">
+      <c r="A47" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" s="3">
+        <v>35</v>
+      </c>
+      <c r="I47" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1400000</v>
+      </c>
+      <c r="K47" s="2">
+        <v>151</v>
+      </c>
+      <c r="L47" s="2">
+        <v>245</v>
+      </c>
+      <c r="M47" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N47" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="18">
+      <c r="A48" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" s="3">
+        <v>36</v>
+      </c>
+      <c r="I48" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="J48" s="3">
+        <v>5000000</v>
+      </c>
+      <c r="K48" s="2">
+        <v>172</v>
+      </c>
+      <c r="L48" s="2">
+        <v>317</v>
+      </c>
+      <c r="M48" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N48" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="18">
+      <c r="A49" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H49" s="3">
+        <v>37</v>
+      </c>
+      <c r="I49" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="J49" s="3">
+        <v>2700000</v>
+      </c>
+      <c r="K49" s="2">
+        <v>196</v>
+      </c>
+      <c r="L49" s="2">
+        <v>27</v>
+      </c>
+      <c r="M49" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N49" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="18">
+      <c r="A50" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" s="3">
+        <v>38</v>
+      </c>
+      <c r="I50" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="J50" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="K50" s="2">
+        <v>60</v>
+      </c>
+      <c r="L50" s="2">
+        <v>327</v>
+      </c>
+      <c r="M50" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N50" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="15.75">
+      <c r="A51" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="B51" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H13">
+      <c r="H51" s="3">
         <v>33</v>
       </c>
-      <c r="I13">
+      <c r="I51" s="3">
         <v>2400000</v>
       </c>
-      <c r="J13">
-        <v>28900000</v>
-      </c>
-      <c r="K13">
-        <v>200</v>
-      </c>
-      <c r="L13">
+      <c r="J51" s="3">
+        <v>5600000</v>
+      </c>
+      <c r="K51" s="2">
+        <v>31</v>
+      </c>
+      <c r="L51" s="2">
+        <v>62</v>
+      </c>
+      <c r="M51" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N51" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O51" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="15.75">
+      <c r="A52" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" s="3">
+        <v>34</v>
+      </c>
+      <c r="I52" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1800000</v>
+      </c>
+      <c r="K52" s="2">
+        <v>50</v>
+      </c>
+      <c r="L52" s="2">
+        <v>6</v>
+      </c>
+      <c r="M52" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N52" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="15.75">
+      <c r="A53" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H53" s="3">
+        <v>35</v>
+      </c>
+      <c r="I53" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="J53" s="3">
+        <v>3600000</v>
+      </c>
+      <c r="K53" s="2">
+        <v>156</v>
+      </c>
+      <c r="L53" s="2">
+        <v>369</v>
+      </c>
+      <c r="M53" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N53" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O53" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="15.75">
+      <c r="A54" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H54" s="3">
+        <v>36</v>
+      </c>
+      <c r="I54" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>5700000</v>
+      </c>
+      <c r="K54" s="2">
+        <v>31</v>
+      </c>
+      <c r="L54" s="2">
+        <v>409</v>
+      </c>
+      <c r="M54" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N54" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="15.75">
+      <c r="A55" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H55" s="3">
+        <v>35</v>
+      </c>
+      <c r="I55" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="J55" s="3">
+        <v>3300000</v>
+      </c>
+      <c r="K55" s="2">
+        <v>22</v>
+      </c>
+      <c r="L55" s="2">
+        <v>358</v>
+      </c>
+      <c r="M55" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N55" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O55" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="15.75">
+      <c r="A56" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H56" s="3">
+        <v>36</v>
+      </c>
+      <c r="I56" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="J56" s="3">
+        <v>6000000</v>
+      </c>
+      <c r="K56" s="2">
+        <v>11</v>
+      </c>
+      <c r="L56" s="2">
+        <v>79</v>
+      </c>
+      <c r="M56" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N56" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O56" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="15.75">
+      <c r="A57" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" s="3">
+        <v>37</v>
+      </c>
+      <c r="I57" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="J57" s="3">
+        <v>5000000</v>
+      </c>
+      <c r="K57" s="2">
+        <v>83</v>
+      </c>
+      <c r="L57" s="2">
+        <v>148</v>
+      </c>
+      <c r="M57" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N57" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="15.75">
+      <c r="A58" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H58" s="3">
+        <v>38</v>
+      </c>
+      <c r="I58" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="J58" s="3">
+        <v>2300000</v>
+      </c>
+      <c r="K58" s="2">
+        <v>184</v>
+      </c>
+      <c r="L58" s="2">
+        <v>461</v>
+      </c>
+      <c r="M58" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N58" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="15.75">
+      <c r="A59" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H59" s="3">
+        <v>39</v>
+      </c>
+      <c r="I59" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1700000</v>
+      </c>
+      <c r="K59" s="2">
+        <v>77</v>
+      </c>
+      <c r="L59" s="2">
+        <v>179</v>
+      </c>
+      <c r="M59" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N59" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="15.75">
+      <c r="A60" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H60" s="3">
+        <v>40</v>
+      </c>
+      <c r="I60" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="J60" s="3">
+        <v>3700000</v>
+      </c>
+      <c r="K60" s="2">
+        <v>123</v>
+      </c>
+      <c r="L60" s="2">
+        <v>317</v>
+      </c>
+      <c r="M60" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N60" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="15.75">
+      <c r="A61" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H61" s="3">
+        <v>41</v>
+      </c>
+      <c r="I61" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="J61" s="3">
+        <v>3500000</v>
+      </c>
+      <c r="K61" s="2">
+        <v>102</v>
+      </c>
+      <c r="L61" s="2">
+        <v>353</v>
+      </c>
+      <c r="M61" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N61" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O61" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="15.75">
+      <c r="A62" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H62" s="3">
+        <v>42</v>
+      </c>
+      <c r="I62" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="J62" s="3">
+        <v>5800000</v>
+      </c>
+      <c r="K62" s="2">
+        <v>122</v>
+      </c>
+      <c r="L62" s="2">
+        <v>268</v>
+      </c>
+      <c r="M62" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N62" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="15.75">
+      <c r="A63" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H63" s="3">
+        <v>43</v>
+      </c>
+      <c r="I63" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="J63" s="3">
+        <v>5000000</v>
+      </c>
+      <c r="K63" s="2">
+        <v>76</v>
+      </c>
+      <c r="L63" s="2">
+        <v>461</v>
+      </c>
+      <c r="M63" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N63" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O63" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="15.75">
+      <c r="A64" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H64" s="3">
+        <v>40</v>
+      </c>
+      <c r="I64" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="J64" s="3">
+        <v>5600000</v>
+      </c>
+      <c r="K64" s="2">
+        <v>123</v>
+      </c>
+      <c r="L64" s="2">
+        <v>34</v>
+      </c>
+      <c r="M64" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N64" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O64" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="15.75">
+      <c r="A65" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H65" s="3">
+        <v>41</v>
+      </c>
+      <c r="I65" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="J65" s="3">
+        <v>1300000</v>
+      </c>
+      <c r="K65" s="2">
+        <v>178</v>
+      </c>
+      <c r="L65" s="2">
+        <v>433</v>
+      </c>
+      <c r="M65" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N65" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O65" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="15.75">
+      <c r="A66" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H66" s="3">
+        <v>42</v>
+      </c>
+      <c r="I66" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>2600000</v>
+      </c>
+      <c r="K66" s="2">
+        <v>65</v>
+      </c>
+      <c r="L66" s="2">
+        <v>123</v>
+      </c>
+      <c r="M66" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N66" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="15.75">
+      <c r="A67" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H67" s="3">
+        <v>43</v>
+      </c>
+      <c r="I67" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="J67" s="3">
+        <v>4100000</v>
+      </c>
+      <c r="K67" s="2">
+        <v>19</v>
+      </c>
+      <c r="L67" s="2">
+        <v>321</v>
+      </c>
+      <c r="M67" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N67" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O67" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="15.75">
+      <c r="A68" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H68" s="3">
+        <v>44</v>
+      </c>
+      <c r="I68" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="J68" s="3">
+        <v>1200000</v>
+      </c>
+      <c r="K68" s="2">
+        <v>108</v>
+      </c>
+      <c r="L68" s="2">
+        <v>379</v>
+      </c>
+      <c r="M68" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N68" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O68" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="15.75">
+      <c r="A69" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H69" s="3">
+        <v>45</v>
+      </c>
+      <c r="I69" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="J69" s="3">
+        <v>2600000</v>
+      </c>
+      <c r="K69" s="2">
+        <v>58</v>
+      </c>
+      <c r="L69" s="2">
+        <v>20</v>
+      </c>
+      <c r="M69" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N69" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O69" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="15.75">
+      <c r="A70" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H70" s="3">
+        <v>46</v>
+      </c>
+      <c r="I70" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="J70" s="3">
+        <v>4400000</v>
+      </c>
+      <c r="K70" s="2">
+        <v>73</v>
+      </c>
+      <c r="L70" s="2">
+        <v>216</v>
+      </c>
+      <c r="M70" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N70" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O70" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="15.75">
+      <c r="A71" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H71" s="3">
+        <v>47</v>
+      </c>
+      <c r="I71" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="J71" s="3">
+        <v>4300000</v>
+      </c>
+      <c r="K71" s="2">
+        <v>40</v>
+      </c>
+      <c r="L71" s="2">
+        <v>233</v>
+      </c>
+      <c r="M71" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N71" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O71" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="15.75">
+      <c r="A72" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H72" s="3">
+        <v>40</v>
+      </c>
+      <c r="I72" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="J72" s="3">
+        <v>1300000</v>
+      </c>
+      <c r="K72" s="2">
+        <v>82</v>
+      </c>
+      <c r="L72" s="2">
+        <v>310</v>
+      </c>
+      <c r="M72" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N72" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="15.75">
+      <c r="A73" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H73" s="3">
+        <v>41</v>
+      </c>
+      <c r="I73" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="J73" s="3">
+        <v>5600000</v>
+      </c>
+      <c r="K73" s="2">
+        <v>131</v>
+      </c>
+      <c r="L73" s="2">
+        <v>300</v>
+      </c>
+      <c r="M73" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N73" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O73" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="15.75">
+      <c r="A74" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H74" s="3">
+        <v>42</v>
+      </c>
+      <c r="I74" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="J74" s="3">
+        <v>5100000</v>
+      </c>
+      <c r="K74" s="2">
+        <v>41</v>
+      </c>
+      <c r="L74" s="2">
+        <v>152</v>
+      </c>
+      <c r="M74" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N74" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O74" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="15.75">
+      <c r="A75" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H75" s="3">
+        <v>43</v>
+      </c>
+      <c r="I75" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="J75" s="3">
+        <v>2900000</v>
+      </c>
+      <c r="K75" s="2">
+        <v>152</v>
+      </c>
+      <c r="L75" s="2">
+        <v>152</v>
+      </c>
+      <c r="M75" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N75" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O75" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="15.75">
+      <c r="A76" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H76" s="3">
+        <v>44</v>
+      </c>
+      <c r="I76" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>2300000</v>
+      </c>
+      <c r="K76" s="2">
+        <v>130</v>
+      </c>
+      <c r="L76" s="2">
+        <v>464</v>
+      </c>
+      <c r="M76" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N76" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="15.75">
+      <c r="A77" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H77" s="3">
+        <v>40</v>
+      </c>
+      <c r="I77" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="J77" s="3">
+        <v>1200000</v>
+      </c>
+      <c r="K77" s="2">
+        <v>77</v>
+      </c>
+      <c r="L77" s="2">
+        <v>153</v>
+      </c>
+      <c r="M77" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N77" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O77" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="15.75">
+      <c r="A78" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H78" s="3">
+        <v>41</v>
+      </c>
+      <c r="I78" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="J78" s="3">
+        <v>2600000</v>
+      </c>
+      <c r="K78" s="2">
+        <v>31</v>
+      </c>
+      <c r="L78" s="2">
+        <v>189</v>
+      </c>
+      <c r="M78" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N78" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O78" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="15.75">
+      <c r="A79" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H79" s="3">
+        <v>42</v>
+      </c>
+      <c r="I79" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="J79" s="3">
+        <v>4400000</v>
+      </c>
+      <c r="K79" s="2">
+        <v>62</v>
+      </c>
+      <c r="L79" s="2">
+        <v>320</v>
+      </c>
+      <c r="M79" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N79" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O79" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="15.75">
+      <c r="A80" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H80" s="3">
+        <v>43</v>
+      </c>
+      <c r="I80" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="J80" s="3">
+        <v>4700000</v>
+      </c>
+      <c r="K80" s="2">
+        <v>181</v>
+      </c>
+      <c r="L80" s="2">
+        <v>448</v>
+      </c>
+      <c r="M80" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N80" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O80" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="15.75">
+      <c r="A81" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H81" s="3">
+        <v>44</v>
+      </c>
+      <c r="I81" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="K81" s="2">
+        <v>24</v>
+      </c>
+      <c r="L81" s="2">
+        <v>452</v>
+      </c>
+      <c r="M81" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N81" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="15.75">
+      <c r="A82" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H82" s="3">
+        <v>37</v>
+      </c>
+      <c r="I82" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="J82" s="3">
+        <v>4900000</v>
+      </c>
+      <c r="K82" s="2">
+        <v>162</v>
+      </c>
+      <c r="L82" s="2">
+        <v>151</v>
+      </c>
+      <c r="M82" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N82" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O82" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="15.75">
+      <c r="A83" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H83" s="3">
+        <v>39</v>
+      </c>
+      <c r="I83" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>4300000</v>
+      </c>
+      <c r="K83" s="2">
+        <v>39</v>
+      </c>
+      <c r="L83" s="2">
+        <v>333</v>
+      </c>
+      <c r="M83" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N83" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="15.75">
+      <c r="A84" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H84" s="3">
+        <v>40</v>
+      </c>
+      <c r="I84" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="J84" s="3">
+        <v>2700000</v>
+      </c>
+      <c r="K84" s="2">
+        <v>14</v>
+      </c>
+      <c r="L84" s="2">
+        <v>115</v>
+      </c>
+      <c r="M84" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N84" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O84" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="15.75">
+      <c r="A85" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H85" s="3">
+        <v>41</v>
+      </c>
+      <c r="I85" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="J85" s="3">
+        <v>2900000</v>
+      </c>
+      <c r="K85" s="2">
+        <v>191</v>
+      </c>
+      <c r="L85" s="2">
+        <v>43</v>
+      </c>
+      <c r="M85" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N85" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O85" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="15.75">
+      <c r="A86" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H86" s="3">
+        <v>42</v>
+      </c>
+      <c r="I86" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="J86" s="3">
+        <v>3800000</v>
+      </c>
+      <c r="K86" s="2">
+        <v>126</v>
+      </c>
+      <c r="L86" s="2">
+        <v>267</v>
+      </c>
+      <c r="M86" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N86" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O86" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="15.75">
+      <c r="A87" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H87" s="3">
+        <v>43</v>
+      </c>
+      <c r="I87" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="J87" s="3">
+        <v>1700000</v>
+      </c>
+      <c r="K87" s="2">
+        <v>182</v>
+      </c>
+      <c r="L87" s="2">
+        <v>326</v>
+      </c>
+      <c r="M87" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N87" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O87" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="15.75">
+      <c r="A88" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H88" s="3">
+        <v>40</v>
+      </c>
+      <c r="I88" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="J88" s="3">
+        <v>5100000</v>
+      </c>
+      <c r="K88" s="2">
+        <v>108</v>
+      </c>
+      <c r="L88" s="2">
+        <v>377</v>
+      </c>
+      <c r="M88" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N88" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O88" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="15.75">
+      <c r="A89" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H89" s="3">
+        <v>41</v>
+      </c>
+      <c r="I89" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="J89" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="K89" s="2">
+        <v>40</v>
+      </c>
+      <c r="L89" s="2">
+        <v>440</v>
+      </c>
+      <c r="M89" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N89" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="15.75">
+      <c r="A90" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H90" s="3">
+        <v>42</v>
+      </c>
+      <c r="I90" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="J90" s="3">
+        <v>2700000</v>
+      </c>
+      <c r="K90" s="2">
         <v>100</v>
       </c>
-      <c r="M13" t="b">
-        <v>1</v>
-      </c>
-      <c r="N13" t="b">
-        <v>1</v>
-      </c>
-      <c r="O13" t="s">
-        <v>53</v>
-      </c>
+      <c r="L90" s="2">
+        <v>328</v>
+      </c>
+      <c r="M90" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N90" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O90" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="15.75">
+      <c r="A91" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H91" s="3">
+        <v>43</v>
+      </c>
+      <c r="I91" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="K91" s="2">
+        <v>124</v>
+      </c>
+      <c r="L91" s="2">
+        <v>429</v>
+      </c>
+      <c r="M91" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N91" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="15.75">
+      <c r="A92" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H92" s="3">
+        <v>44</v>
+      </c>
+      <c r="I92" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="J92" s="3">
+        <v>2200000</v>
+      </c>
+      <c r="K92" s="2">
+        <v>32</v>
+      </c>
+      <c r="L92" s="2">
+        <v>148</v>
+      </c>
+      <c r="M92" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N92" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O92" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="15.75">
+      <c r="A93" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H93" s="3">
+        <v>45</v>
+      </c>
+      <c r="I93" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="J93" s="3">
+        <v>4100000</v>
+      </c>
+      <c r="K93" s="2">
+        <v>166</v>
+      </c>
+      <c r="L93" s="2">
+        <v>466</v>
+      </c>
+      <c r="M93" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N93" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O93" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="15.75">
+      <c r="A94" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H94" s="3">
+        <v>40</v>
+      </c>
+      <c r="I94" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="J94" s="3">
+        <v>1400000</v>
+      </c>
+      <c r="K94" s="2">
+        <v>35</v>
+      </c>
+      <c r="L94" s="2">
+        <v>142</v>
+      </c>
+      <c r="M94" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N94" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" ht="15.75">
+      <c r="A95" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H95" s="3">
+        <v>41</v>
+      </c>
+      <c r="I95" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="J95" s="3">
+        <v>5300000</v>
+      </c>
+      <c r="K95" s="2">
+        <v>25</v>
+      </c>
+      <c r="L95" s="2">
+        <v>490</v>
+      </c>
+      <c r="M95" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N95" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O95" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="15.75">
+      <c r="A96" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H96" s="3">
+        <v>42</v>
+      </c>
+      <c r="I96" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="J96" s="3">
+        <v>6000000</v>
+      </c>
+      <c r="K96" s="2">
+        <v>37</v>
+      </c>
+      <c r="L96" s="2">
+        <v>370</v>
+      </c>
+      <c r="M96" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N96" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O96" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="15.75">
+      <c r="A97" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H97" s="3">
+        <v>43</v>
+      </c>
+      <c r="I97" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="J97" s="3">
+        <v>4700000</v>
+      </c>
+      <c r="K97" s="2">
+        <v>50</v>
+      </c>
+      <c r="L97" s="2">
+        <v>479</v>
+      </c>
+      <c r="M97" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N97" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O97" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" ht="15.75">
+      <c r="A98" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H98" s="3">
+        <v>44</v>
+      </c>
+      <c r="I98" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="J98" s="3">
+        <v>2100000</v>
+      </c>
+      <c r="K98" s="2">
+        <v>16</v>
+      </c>
+      <c r="L98" s="2">
+        <v>47</v>
+      </c>
+      <c r="M98" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N98" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O98" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" ht="15.75">
+      <c r="A99" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H99" s="3">
+        <v>45</v>
+      </c>
+      <c r="I99" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="J99" s="3">
+        <v>3200000</v>
+      </c>
+      <c r="K99" s="2">
+        <v>31</v>
+      </c>
+      <c r="L99" s="2">
+        <v>322</v>
+      </c>
+      <c r="M99" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N99" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O99" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" ht="15.75">
+      <c r="A100" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H100" s="3">
+        <v>40</v>
+      </c>
+      <c r="I100" s="3">
+        <v>3200000</v>
+      </c>
+      <c r="J100" s="3">
+        <v>4500000</v>
+      </c>
+      <c r="K100" s="2">
+        <v>109</v>
+      </c>
+      <c r="L100" s="2">
+        <v>300</v>
+      </c>
+      <c r="M100" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N100" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" ht="15.75">
+      <c r="A101" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H101" s="3">
+        <v>41</v>
+      </c>
+      <c r="I101" s="3">
+        <v>3200000</v>
+      </c>
+      <c r="J101" s="3">
+        <v>1800000</v>
+      </c>
+      <c r="K101" s="2">
+        <v>111</v>
+      </c>
+      <c r="L101" s="2">
+        <v>63</v>
+      </c>
+      <c r="M101" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N101" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" ht="15.75">
+      <c r="A102" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H102" s="3">
+        <v>42</v>
+      </c>
+      <c r="I102" s="3">
+        <v>3200000</v>
+      </c>
+      <c r="J102" s="3">
+        <v>2300000</v>
+      </c>
+      <c r="K102" s="2">
+        <v>5</v>
+      </c>
+      <c r="L102" s="2">
+        <v>449</v>
+      </c>
+      <c r="M102" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N102" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" ht="15.75">
+      <c r="A103" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H103" s="3">
+        <v>43</v>
+      </c>
+      <c r="I103" s="3">
+        <v>3200000</v>
+      </c>
+      <c r="J103" s="3">
+        <v>4800000</v>
+      </c>
+      <c r="K103" s="2">
+        <v>199</v>
+      </c>
+      <c r="L103" s="2">
+        <v>354</v>
+      </c>
+      <c r="M103" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N103" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O103" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" ht="15.75">
+      <c r="A104" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H104" s="3">
+        <v>44</v>
+      </c>
+      <c r="I104" s="3">
+        <v>3200000</v>
+      </c>
+      <c r="J104" s="3">
+        <v>4700000</v>
+      </c>
+      <c r="K104" s="2">
+        <v>4</v>
+      </c>
+      <c r="L104" s="2">
+        <v>34</v>
+      </c>
+      <c r="M104" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N104" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O104" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" ht="15.75">
+      <c r="A105" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H105" s="3">
+        <v>40</v>
+      </c>
+      <c r="I105" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="J105" s="3">
+        <v>2500000</v>
+      </c>
+      <c r="K105" s="2">
+        <v>85</v>
+      </c>
+      <c r="L105" s="2">
+        <v>452</v>
+      </c>
+      <c r="M105" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N105" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O105" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" ht="15.75">
+      <c r="A106" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H106" s="3">
+        <v>41</v>
+      </c>
+      <c r="I106" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="J106" s="3">
+        <v>1900000</v>
+      </c>
+      <c r="K106" s="2">
+        <v>183</v>
+      </c>
+      <c r="L106" s="2">
+        <v>372</v>
+      </c>
+      <c r="M106" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N106" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O106" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" ht="15.75">
+      <c r="A107" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H107" s="3">
+        <v>42</v>
+      </c>
+      <c r="I107" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="J107" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="K107" s="2">
+        <v>124</v>
+      </c>
+      <c r="L107" s="2">
+        <v>439</v>
+      </c>
+      <c r="M107" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N107" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O107" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" ht="15.75">
+      <c r="A108" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H108" s="3">
+        <v>43</v>
+      </c>
+      <c r="I108" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="J108" s="3">
+        <v>5600000</v>
+      </c>
+      <c r="K108" s="2">
+        <v>24</v>
+      </c>
+      <c r="L108" s="2">
+        <v>448</v>
+      </c>
+      <c r="M108" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N108" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O108" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" ht="15.75">
+      <c r="A109" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H109" s="3">
+        <v>44</v>
+      </c>
+      <c r="I109" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="J109" s="3">
+        <v>2800000</v>
+      </c>
+      <c r="K109" s="2">
+        <v>187</v>
+      </c>
+      <c r="L109" s="2">
+        <v>31</v>
+      </c>
+      <c r="M109" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N109" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O109" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" ht="15.75">
+      <c r="A110" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H110" s="3">
+        <v>45</v>
+      </c>
+      <c r="I110" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="J110" s="3">
+        <v>3800000</v>
+      </c>
+      <c r="K110" s="2">
+        <v>33</v>
+      </c>
+      <c r="L110" s="2">
+        <v>351</v>
+      </c>
+      <c r="M110" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N110" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O110" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" ht="15.75">
+      <c r="A111" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H111" s="3">
+        <v>46</v>
+      </c>
+      <c r="I111" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="J111" s="3">
+        <v>5600000</v>
+      </c>
+      <c r="K111" s="2">
+        <v>157</v>
+      </c>
+      <c r="L111" s="2">
+        <v>363</v>
+      </c>
+      <c r="M111" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N111" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O111" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" ht="15.75">
+      <c r="A112" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H112" s="3">
+        <v>40</v>
+      </c>
+      <c r="I112" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="J112" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="K112" s="2">
+        <v>78</v>
+      </c>
+      <c r="L112" s="2">
+        <v>257</v>
+      </c>
+      <c r="M112" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N112" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O112" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" ht="15.75">
+      <c r="A113" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H113" s="3">
+        <v>41</v>
+      </c>
+      <c r="I113" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="J113" s="3">
+        <v>4100000</v>
+      </c>
+      <c r="K113" s="2">
+        <v>7</v>
+      </c>
+      <c r="L113" s="2">
+        <v>256</v>
+      </c>
+      <c r="M113" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N113" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O113" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" ht="15.75">
+      <c r="A114" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H114" s="3">
+        <v>42</v>
+      </c>
+      <c r="I114" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="J114" s="3">
+        <v>2600000</v>
+      </c>
+      <c r="K114" s="2">
+        <v>7</v>
+      </c>
+      <c r="L114" s="2">
+        <v>473</v>
+      </c>
+      <c r="M114" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N114" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O114" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" ht="15.75">
+      <c r="A115" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H115" s="3">
+        <v>43</v>
+      </c>
+      <c r="I115" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="J115" s="3">
+        <v>5400000</v>
+      </c>
+      <c r="K115" s="2">
+        <v>135</v>
+      </c>
+      <c r="L115" s="2">
+        <v>310</v>
+      </c>
+      <c r="M115" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N115" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O115" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" ht="15.75">
+      <c r="A116" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H116" s="3">
+        <v>44</v>
+      </c>
+      <c r="I116" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="J116" s="3">
+        <v>1200000</v>
+      </c>
+      <c r="K116" s="2">
+        <v>164</v>
+      </c>
+      <c r="L116" s="2">
+        <v>415</v>
+      </c>
+      <c r="M116" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N116" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O116" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" ht="15.75">
+      <c r="A117" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H117" s="3">
+        <v>45</v>
+      </c>
+      <c r="I117" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="J117" s="3">
+        <v>5000000</v>
+      </c>
+      <c r="K117" s="2">
+        <v>187</v>
+      </c>
+      <c r="L117" s="2">
+        <v>183</v>
+      </c>
+      <c r="M117" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N117" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O117" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" ht="15.75">
+      <c r="A118" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H118" s="3">
+        <v>40</v>
+      </c>
+      <c r="I118" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="J118" s="3">
+        <v>2600000</v>
+      </c>
+      <c r="K118" s="2">
+        <v>150</v>
+      </c>
+      <c r="L118" s="2">
+        <v>61</v>
+      </c>
+      <c r="M118" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N118" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O118" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" ht="15.75">
+      <c r="A119" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H119" s="3">
+        <v>41</v>
+      </c>
+      <c r="I119" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="J119" s="3">
+        <v>3700000</v>
+      </c>
+      <c r="K119" s="2">
+        <v>161</v>
+      </c>
+      <c r="L119" s="2">
+        <v>415</v>
+      </c>
+      <c r="M119" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N119" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O119" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" ht="15.75">
+      <c r="A120" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H120" s="3">
+        <v>42</v>
+      </c>
+      <c r="I120" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="J120" s="3">
+        <v>3100000</v>
+      </c>
+      <c r="K120" s="2">
+        <v>27</v>
+      </c>
+      <c r="L120" s="2">
+        <v>304</v>
+      </c>
+      <c r="M120" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N120" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O120" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" ht="15.75">
+      <c r="A121" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H121" s="3">
+        <v>43</v>
+      </c>
+      <c r="I121" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="J121" s="3">
+        <v>6000000</v>
+      </c>
+      <c r="K121" s="2">
+        <v>135</v>
+      </c>
+      <c r="L121" s="2">
+        <v>446</v>
+      </c>
+      <c r="M121" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N121" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O121" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" ht="15.75">
+      <c r="A122" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H122" s="3">
+        <v>44</v>
+      </c>
+      <c r="I122" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="J122" s="3">
+        <v>5500000</v>
+      </c>
+      <c r="K122" s="2">
+        <v>65</v>
+      </c>
+      <c r="L122" s="2">
+        <v>444</v>
+      </c>
+      <c r="M122" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N122" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O122" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" ht="15.75">
+      <c r="A123" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H123" s="3">
+        <v>45</v>
+      </c>
+      <c r="I123" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="J123" s="3">
+        <v>1100000</v>
+      </c>
+      <c r="K123" s="2">
+        <v>6</v>
+      </c>
+      <c r="L123" s="2">
+        <v>76</v>
+      </c>
+      <c r="M123" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N123" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O123" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" ht="15.75">
+      <c r="A124" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H124" s="3">
+        <v>46</v>
+      </c>
+      <c r="I124" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="J124" s="3">
+        <v>2900000</v>
+      </c>
+      <c r="K124" s="2">
+        <v>36</v>
+      </c>
+      <c r="L124" s="2">
+        <v>37</v>
+      </c>
+      <c r="M124" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N124" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O124" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" ht="15.75">
+      <c r="A125" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H125" s="3">
+        <v>39</v>
+      </c>
+      <c r="I125" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="J125" s="3">
+        <v>4300000</v>
+      </c>
+      <c r="K125" s="2">
+        <v>87</v>
+      </c>
+      <c r="L125" s="2">
+        <v>365</v>
+      </c>
+      <c r="M125" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N125" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O125" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" ht="15.75">
+      <c r="A126" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H126" s="3">
+        <v>40</v>
+      </c>
+      <c r="I126" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="J126" s="3">
+        <v>5900000</v>
+      </c>
+      <c r="K126" s="2">
+        <v>2</v>
+      </c>
+      <c r="L126" s="2">
+        <v>372</v>
+      </c>
+      <c r="M126" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N126" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O126" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" ht="15.75">
+      <c r="A127" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H127" s="3">
+        <v>41</v>
+      </c>
+      <c r="I127" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="J127" s="3">
+        <v>4500000</v>
+      </c>
+      <c r="K127" s="2">
+        <v>116</v>
+      </c>
+      <c r="L127" s="2">
+        <v>117</v>
+      </c>
+      <c r="M127" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N127" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O127" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" ht="15.75">
+      <c r="A128" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H128" s="3">
+        <v>42</v>
+      </c>
+      <c r="I128" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="J128" s="3">
+        <v>4300000</v>
+      </c>
+      <c r="K128" s="2">
+        <v>116</v>
+      </c>
+      <c r="L128" s="2">
+        <v>12</v>
+      </c>
+      <c r="M128" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N128" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O128" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" ht="15.75">
+      <c r="A129" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H129" s="3">
+        <v>43</v>
+      </c>
+      <c r="I129" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="J129" s="3">
+        <v>3500000</v>
+      </c>
+      <c r="K129" s="2">
+        <v>45</v>
+      </c>
+      <c r="L129" s="2">
+        <v>219</v>
+      </c>
+      <c r="M129" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N129" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O129" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" ht="15.75">
+      <c r="A130" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H130" s="3">
+        <v>44</v>
+      </c>
+      <c r="I130" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="J130" s="3">
+        <v>3100000</v>
+      </c>
+      <c r="K130" s="2">
+        <v>180</v>
+      </c>
+      <c r="L130" s="2">
+        <v>69</v>
+      </c>
+      <c r="M130" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N130" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O130" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" ht="15.75">
+      <c r="A131" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H131" s="3">
+        <v>45</v>
+      </c>
+      <c r="I131" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="J131" s="3">
+        <v>3100000</v>
+      </c>
+      <c r="K131" s="2">
+        <v>19</v>
+      </c>
+      <c r="L131" s="2">
+        <v>188</v>
+      </c>
+      <c r="M131" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N131" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O131" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" ht="15.75">
+      <c r="A132" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H132" s="3">
+        <v>46</v>
+      </c>
+      <c r="I132" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="J132" s="3">
+        <v>1600000</v>
+      </c>
+      <c r="K132" s="2">
+        <v>3</v>
+      </c>
+      <c r="L132" s="2">
+        <v>415</v>
+      </c>
+      <c r="M132" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N132" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O132" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
+      <c r="A138" s="2"/>
+    </row>
+    <row r="139" spans="1:15">
+      <c r="A139" s="2"/>
+    </row>
+    <row r="140" spans="1:15">
+      <c r="A140" s="2"/>
+    </row>
+    <row r="141" spans="1:15">
+      <c r="A141" s="2"/>
+    </row>
+    <row r="142" spans="1:15">
+      <c r="A142" s="2"/>
+    </row>
+    <row r="143" spans="1:15">
+      <c r="A143" s="2"/>
+    </row>
+    <row r="144" spans="1:15">
+      <c r="A144" s="2"/>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="2"/>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="2"/>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="2"/>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="2"/>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="2"/>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="2"/>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="2"/>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="2"/>
+      <c r="F152" s="7"/>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="2"/>
+      <c r="F153" s="7"/>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="2"/>
+      <c r="F154" s="7"/>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="2"/>
+      <c r="F155" s="7"/>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="2"/>
+      <c r="F156" s="7"/>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="2"/>
+      <c r="F157" s="7"/>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="2"/>
+      <c r="F158" s="7"/>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="2"/>
+      <c r="F159" s="7"/>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="2"/>
+      <c r="F160" s="7"/>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="2"/>
+      <c r="F161" s="7"/>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="2"/>
+      <c r="F162" s="7"/>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="2"/>
+      <c r="F163" s="7"/>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="2"/>
+      <c r="F164" s="7"/>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="2"/>
+      <c r="F165" s="7"/>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="2"/>
+      <c r="F166" s="7"/>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="2"/>
+      <c r="F167" s="7"/>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="2"/>
+      <c r="F168" s="7"/>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="2"/>
+      <c r="F169" s="7"/>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="2"/>
+      <c r="F170" s="7"/>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="2"/>
+      <c r="F171" s="7"/>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="2"/>
+      <c r="F172" s="7"/>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="2"/>
+      <c r="F173" s="7"/>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="2"/>
+      <c r="F174" s="7"/>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="2"/>
+      <c r="F175" s="7"/>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="2"/>
+      <c r="F176" s="7"/>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="2"/>
+      <c r="F177" s="7"/>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="2"/>
+      <c r="F178" s="7"/>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="2"/>
+      <c r="F179" s="7"/>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="2"/>
+      <c r="F180" s="7"/>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="2"/>
+      <c r="F181" s="7"/>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="2"/>
+      <c r="F182" s="7"/>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="2"/>
+      <c r="F183" s="7"/>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="2"/>
+      <c r="F184" s="7"/>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="2"/>
+      <c r="F185" s="7"/>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="2"/>
+      <c r="F186" s="7"/>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="2"/>
+      <c r="F187" s="7"/>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="2"/>
+      <c r="F188" s="7"/>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="2"/>
+      <c r="F189" s="7"/>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="2"/>
+      <c r="F190" s="7"/>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="2"/>
+      <c r="F191" s="7"/>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="2"/>
+      <c r="F192" s="7"/>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="2"/>
+      <c r="F193" s="7"/>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="2"/>
+      <c r="F194" s="7"/>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="2"/>
+      <c r="F195" s="7"/>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="2"/>
+      <c r="F196" s="7"/>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="2"/>
+      <c r="F197" s="7"/>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="2"/>
+      <c r="F198" s="7"/>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="2"/>
+      <c r="F199" s="7"/>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="2"/>
+      <c r="F200" s="7"/>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="2"/>
+      <c r="F201" s="7"/>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" s="2"/>
+      <c r="F202" s="7"/>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" s="2"/>
+      <c r="F203" s="7"/>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" s="2"/>
+      <c r="F204" s="7"/>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" s="2"/>
+      <c r="F205" s="7"/>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" s="2"/>
+      <c r="F206" s="7"/>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" s="2"/>
+      <c r="F207" s="7"/>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" s="2"/>
+      <c r="F208" s="7"/>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="2"/>
+      <c r="F209" s="7"/>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="2"/>
+      <c r="F210" s="7"/>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="2"/>
+      <c r="F211" s="7"/>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" s="2"/>
+      <c r="F212" s="7"/>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" s="2"/>
+      <c r="F213" s="7"/>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="2"/>
+      <c r="F214" s="7"/>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="2"/>
+      <c r="F215" s="7"/>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="2"/>
+      <c r="F216" s="7"/>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="2"/>
+      <c r="F217" s="7"/>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="2"/>
+      <c r="F218" s="7"/>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="2"/>
+      <c r="F219" s="7"/>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="2"/>
+      <c r="F220" s="7"/>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="2"/>
+      <c r="F221" s="7"/>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" s="2"/>
+      <c r="F222" s="7"/>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="2"/>
+      <c r="F223" s="7"/>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="2"/>
+      <c r="F224" s="7"/>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" s="2"/>
+      <c r="F225" s="7"/>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="2"/>
+      <c r="F226" s="7"/>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" s="2"/>
+      <c r="F227" s="7"/>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" s="2"/>
+      <c r="F228" s="7"/>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="2"/>
+      <c r="F229" s="7"/>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" s="2"/>
+      <c r="F230" s="7"/>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" s="2"/>
+      <c r="F231" s="7"/>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" s="2"/>
+      <c r="F232" s="7"/>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" s="2"/>
+      <c r="F233" s="7"/>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" s="2"/>
+      <c r="F234" s="7"/>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" s="2"/>
+      <c r="F235" s="7"/>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" s="2"/>
+      <c r="F236" s="7"/>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" s="2"/>
+      <c r="F237" s="7"/>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" s="2"/>
+      <c r="F238" s="7"/>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" s="2"/>
+      <c r="F239" s="7"/>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" s="2"/>
+      <c r="F240" s="7"/>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" s="2"/>
+      <c r="F241" s="7"/>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" s="2"/>
+      <c r="F242" s="7"/>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" s="2"/>
+      <c r="F243" s="7"/>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" s="2"/>
+      <c r="F244" s="7"/>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" s="2"/>
+      <c r="F245" s="7"/>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" s="2"/>
+      <c r="F246" s="7"/>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" s="2"/>
+      <c r="F247" s="7"/>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" s="2"/>
+      <c r="F248" s="7"/>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" s="2"/>
+      <c r="F249" s="7"/>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" s="2"/>
+      <c r="F250" s="7"/>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" s="2"/>
+      <c r="F251" s="7"/>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" s="2"/>
+      <c r="F252" s="7"/>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" s="2"/>
+      <c r="F253" s="7"/>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" s="2"/>
+      <c r="F254" s="7"/>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" s="2"/>
+      <c r="F255" s="7"/>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" s="2"/>
+      <c r="F256" s="7"/>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" s="2"/>
+      <c r="F257" s="7"/>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" s="2"/>
+      <c r="F258" s="7"/>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" s="2"/>
+      <c r="F259" s="7"/>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" s="2"/>
+      <c r="F260" s="7"/>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" s="2"/>
+      <c r="F261" s="7"/>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" s="2"/>
+      <c r="F262" s="7"/>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" s="2"/>
+      <c r="F263" s="7"/>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264" s="2"/>
+      <c r="F264" s="7"/>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" s="2"/>
+      <c r="F265" s="7"/>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" s="2"/>
+      <c r="F266" s="7"/>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267" s="2"/>
+      <c r="F267" s="7"/>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268" s="2"/>
+      <c r="F268" s="7"/>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="F269" s="7"/>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="F270" s="7"/>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="F271" s="7"/>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="F272" s="7"/>
+    </row>
+    <row r="273" spans="6:6">
+      <c r="F273" s="7"/>
+    </row>
+    <row r="274" spans="6:6">
+      <c r="F274" s="7"/>
+    </row>
+    <row r="275" spans="6:6">
+      <c r="F275" s="7"/>
+    </row>
+    <row r="276" spans="6:6">
+      <c r="F276" s="7"/>
+    </row>
+    <row r="277" spans="6:6">
+      <c r="F277" s="7"/>
+    </row>
+    <row r="278" spans="6:6">
+      <c r="F278" s="7"/>
+    </row>
+    <row r="279" spans="6:6">
+      <c r="F279" s="7"/>
+    </row>
+    <row r="280" spans="6:6">
+      <c r="F280" s="7"/>
+    </row>
+    <row r="281" spans="6:6">
+      <c r="F281" s="7"/>
+    </row>
+    <row r="282" spans="6:6">
+      <c r="F282" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/App_View/wwwroot/excel/template.xlsx
+++ b/App_View/wwwroot/excel/template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27004"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="697" documentId="11_92480E3D80EBD8D2623DC6FA873E8C18510380D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3BCBC7F-2FC6-4D59-8CAA-5CBBDC8586CF}"/>
+  <xr:revisionPtr revIDLastSave="897" documentId="11_92480E3D80EBD8D2623DC6FA873E8C18510380D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0F37836-B019-4CC3-8ADD-69EBFF54843D}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="91">
   <si>
     <t>Tên SP</t>
   </si>
@@ -111,6 +111,18 @@
     <t>Đế phẳng</t>
   </si>
   <si>
+    <t>pink</t>
+  </si>
+  <si>
+    <t>RIVALRY_86_LOW_Pink1.png,RIVALRY_86_LOW_Pink2.png,RIVALRY_86_LOW_Pink3.png,RIVALRY_86_LOW_Pink4.png</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>RIVALRY_86_LOW_white_1.png,RIVALRY_86_LOW_white_2.png,RIVALRY_86_LOW_white_3.png,RIVALRY_86_LOW_white_4.png</t>
+  </si>
+  <si>
     <t>green</t>
   </si>
   <si>
@@ -144,7 +156,10 @@
     <t>HEAWYN</t>
   </si>
   <si>
-    <t>white</t>
+    <t>HEAWYN_black1.png,HEAWYN_black2.png,HEAWYN_black3.png,HEAWYN_black4.png</t>
+  </si>
+  <si>
+    <t>HEAWYN_blue1.png,HEAWYN_blue2.png,HEAWYN_blue3.png,HEAWYN_blue4.png</t>
   </si>
   <si>
     <t>HEAWYN1.png,HEAWYN2.png,HEAWYN3.png,HEAWYN4.png</t>
@@ -162,18 +177,30 @@
     <t>GALAXY6_blue1.png,GALAXY6_blue2.png,GALAXY6_blue3.png,GALAXY6_blue4.png</t>
   </si>
   <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>GALAXY6_purpe_1.png,GALAXY6_purpe_2.png,GALAXY6_purpe_3.png,GALAXY6_purpe_4.png</t>
+  </si>
+  <si>
     <t>ADICROSS LOW</t>
   </si>
   <si>
     <t>Đánh gold</t>
   </si>
   <si>
+    <t>ADICROSS_LOW_white1.png,ADICROSS_LOW_white2.png,ADICROSS_LOW_white3.png,ADICROSS_LOW_white4.png</t>
+  </si>
+  <si>
     <t>ADICROSS_LOW_1.png,ADICROSS_LOW_2.png,ADICROSS_LOW_3.png,ADICROSS_LOW_4.png</t>
   </si>
   <si>
     <t>RIVALRY LOW</t>
   </si>
   <si>
+    <t>RIVALRY_LOW_black1.png,RIVALRY_LOW_black2.png,RIVALRY_LOW_black3.png,RIVALRY_LOW_black4.png</t>
+  </si>
+  <si>
     <t>RIVALRY_LOW1.png,RIVALRY_LOW2.png,RIVALRY_LOW3.png,RIVALRY_LOW4.png</t>
   </si>
   <si>
@@ -186,6 +213,21 @@
     <t>Giày bóng rổ</t>
   </si>
   <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>Impact_4_brown1.png,Impact_4_brown2.png,Impact_4_brown3.png,Impact_4_brown4.png</t>
+  </si>
+  <si>
+    <t>Impact_4_blue1.png,Impact_4_blue2.png,Impact_4_blue3.png,Impact_4_blue4.png</t>
+  </si>
+  <si>
+    <t>Impact_4_white1.png,Impact_4_white2.png,Impact_4_white3.png,Impact_4_white4.png</t>
+  </si>
+  <si>
+    <t>Impact_4_pink1.png,Impact_4_pink2.png,Impact_4_pink3.png,Impact_4_pink4.png</t>
+  </si>
+  <si>
     <t>Impact_4_1.png,Impact_4_2.png,Impact_4_3.png,Impact_4_4.png</t>
   </si>
   <si>
@@ -222,9 +264,6 @@
     <t>Dunk_Low_Unlocked_By_You_blu1.png,Dunk_Low_Unlocked_By_You_blu2.png,Dunk_Low_Unlocked_By_You_blu3.png,Dunk_Low_Unlocked_By_You_blu4.png</t>
   </si>
   <si>
-    <t>pink</t>
-  </si>
-  <si>
     <t>Dunk_Low_Unlocked_By_You_pink1.png,Dunk_Low_Unlocked_By_You_pink2.png,Dunk_Low_Unlocked_By_You_pink3.png,Dunk_Low_Unlocked_By_You_pink4.png</t>
   </si>
   <si>
@@ -232,9 +271,6 @@
   </si>
   <si>
     <t>Air Force 1 '07 WB</t>
-  </si>
-  <si>
-    <t>brown</t>
   </si>
   <si>
     <t>Air_Force_WB_brown1.png,Air_Force_WB_brown2.png,Air_Force_WB_brown3.png,Air_Force_WB_brown4.png</t>
@@ -658,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O282"/>
+  <dimension ref="A1:O279"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="O65" sqref="O65:O67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -872,8 +908,8 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
+      <c r="A5" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>16</v>
@@ -884,29 +920,29 @@
       <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="2">
-        <v>35</v>
+      <c r="E5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="3">
+        <v>40</v>
       </c>
       <c r="I5" s="3">
         <v>2000000</v>
       </c>
       <c r="J5" s="3">
-        <v>2800000</v>
+        <v>2100000</v>
       </c>
       <c r="K5" s="2">
-        <v>162</v>
+        <v>49</v>
       </c>
       <c r="L5" s="2">
-        <v>298</v>
+        <v>110</v>
       </c>
       <c r="M5" s="2" t="b">
         <v>1</v>
@@ -915,12 +951,12 @@
         <v>1</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
+      <c r="A6" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>16</v>
@@ -931,29 +967,29 @@
       <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="2">
-        <v>36</v>
+      <c r="E6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="3">
+        <v>41</v>
       </c>
       <c r="I6" s="3">
         <v>2000000</v>
       </c>
       <c r="J6" s="3">
-        <v>4200000</v>
+        <v>2100000</v>
       </c>
       <c r="K6" s="2">
-        <v>178</v>
+        <v>49</v>
       </c>
       <c r="L6" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M6" s="2" t="b">
         <v>1</v>
@@ -962,12 +998,12 @@
         <v>1</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>16</v>
@@ -978,29 +1014,29 @@
       <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="2">
-        <v>37</v>
+      <c r="E7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="3">
+        <v>42</v>
       </c>
       <c r="I7" s="3">
         <v>2000000</v>
       </c>
       <c r="J7" s="3">
-        <v>1600000</v>
+        <v>2100000</v>
       </c>
       <c r="K7" s="2">
-        <v>149</v>
+        <v>49</v>
       </c>
       <c r="L7" s="2">
-        <v>442</v>
+        <v>110</v>
       </c>
       <c r="M7" s="2" t="b">
         <v>1</v>
@@ -1009,10 +1045,10 @@
         <v>1</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="19.5" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
@@ -1035,7 +1071,7 @@
         <v>26</v>
       </c>
       <c r="H8" s="3">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I8" s="3">
         <v>2000000</v>
@@ -1059,7 +1095,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="19.5" customHeight="1">
+    <row r="9" spans="1:15">
       <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
@@ -1079,22 +1115,22 @@
         <v>25</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H9" s="3">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I9" s="3">
         <v>2000000</v>
       </c>
       <c r="J9" s="3">
-        <v>2500000</v>
+        <v>2100000</v>
       </c>
       <c r="K9" s="2">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="L9" s="2">
-        <v>292</v>
+        <v>110</v>
       </c>
       <c r="M9" s="2" t="b">
         <v>1</v>
@@ -1103,10 +1139,10 @@
         <v>1</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="19.5" customHeight="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
@@ -1126,22 +1162,22 @@
         <v>25</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H10" s="3">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I10" s="3">
         <v>2000000</v>
       </c>
       <c r="J10" s="3">
-        <v>4000000</v>
+        <v>2100000</v>
       </c>
       <c r="K10" s="2">
-        <v>184</v>
+        <v>49</v>
       </c>
       <c r="L10" s="2">
-        <v>398</v>
+        <v>110</v>
       </c>
       <c r="M10" s="2" t="b">
         <v>1</v>
@@ -1150,10 +1186,10 @@
         <v>1</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="19.5" customHeight="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
@@ -1173,22 +1209,22 @@
         <v>25</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H11" s="3">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I11" s="3">
         <v>2000000</v>
       </c>
       <c r="J11" s="3">
-        <v>6000000</v>
+        <v>2100000</v>
       </c>
       <c r="K11" s="2">
-        <v>156</v>
+        <v>49</v>
       </c>
       <c r="L11" s="2">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="M11" s="2" t="b">
         <v>1</v>
@@ -1197,10 +1233,10 @@
         <v>1</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="19.5" customHeight="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="3" t="s">
         <v>23</v>
       </c>
@@ -1220,22 +1256,22 @@
         <v>25</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H12" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I12" s="3">
         <v>2000000</v>
       </c>
       <c r="J12" s="3">
-        <v>5200000</v>
+        <v>2100000</v>
       </c>
       <c r="K12" s="2">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="L12" s="2">
-        <v>407</v>
+        <v>110</v>
       </c>
       <c r="M12" s="2" t="b">
         <v>1</v>
@@ -1244,10 +1280,10 @@
         <v>1</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="19.5" customHeight="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
@@ -1270,19 +1306,19 @@
         <v>28</v>
       </c>
       <c r="H13" s="3">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I13" s="3">
         <v>2000000</v>
       </c>
       <c r="J13" s="3">
-        <v>3400000</v>
+        <v>2100000</v>
       </c>
       <c r="K13" s="2">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="L13" s="2">
-        <v>346</v>
+        <v>110</v>
       </c>
       <c r="M13" s="2" t="b">
         <v>1</v>
@@ -1294,7 +1330,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="19.5" customHeight="1">
+    <row r="14" spans="1:15">
       <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
@@ -1317,19 +1353,19 @@
         <v>28</v>
       </c>
       <c r="H14" s="3">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I14" s="3">
         <v>2000000</v>
       </c>
       <c r="J14" s="3">
-        <v>3400000</v>
+        <v>2100000</v>
       </c>
       <c r="K14" s="2">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="L14" s="2">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="M14" s="2" t="b">
         <v>1</v>
@@ -1361,22 +1397,22 @@
         <v>25</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="3">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I15" s="3">
         <v>2000000</v>
       </c>
       <c r="J15" s="3">
-        <v>4800000</v>
+        <v>2100000</v>
       </c>
       <c r="K15" s="2">
-        <v>200</v>
+        <v>49</v>
       </c>
       <c r="L15" s="2">
-        <v>485</v>
+        <v>110</v>
       </c>
       <c r="M15" s="2" t="b">
         <v>1</v>
@@ -1385,7 +1421,7 @@
         <v>1</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="19.5" customHeight="1">
@@ -1408,22 +1444,22 @@
         <v>25</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H16" s="3">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I16" s="3">
         <v>2000000</v>
       </c>
       <c r="J16" s="3">
-        <v>5000000</v>
+        <v>2500000</v>
       </c>
       <c r="K16" s="2">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="L16" s="2">
-        <v>451</v>
+        <v>292</v>
       </c>
       <c r="M16" s="2" t="b">
         <v>1</v>
@@ -1432,10 +1468,10 @@
         <v>1</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="19.5" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>23</v>
       </c>
@@ -1455,22 +1491,22 @@
         <v>25</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H17" s="3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I17" s="3">
         <v>2000000</v>
       </c>
       <c r="J17" s="3">
-        <v>1400000</v>
+        <v>4000000</v>
       </c>
       <c r="K17" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L17" s="2">
-        <v>53</v>
+        <v>398</v>
       </c>
       <c r="M17" s="2" t="b">
         <v>1</v>
@@ -1479,12 +1515,12 @@
         <v>1</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="19.5" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>16</v>
@@ -1496,42 +1532,42 @@
         <v>18</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="3">
+        <v>43</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>6000000</v>
+      </c>
+      <c r="K18" s="2">
+        <v>156</v>
+      </c>
+      <c r="L18" s="2">
+        <v>69</v>
+      </c>
+      <c r="M18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="3">
-        <v>45</v>
-      </c>
-      <c r="I18" s="3">
-        <v>2400000</v>
-      </c>
-      <c r="J18" s="3">
-        <v>3000000</v>
-      </c>
-      <c r="K18" s="2">
-        <v>182</v>
-      </c>
-      <c r="L18" s="2">
-        <v>318</v>
-      </c>
-      <c r="M18" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N18" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+    </row>
+    <row r="19" spans="1:15" ht="19.5" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>16</v>
@@ -1543,42 +1579,42 @@
         <v>18</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="3">
+        <v>40</v>
+      </c>
+      <c r="I19" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="J19" s="3">
+        <v>3400000</v>
+      </c>
+      <c r="K19" s="2">
+        <v>69</v>
+      </c>
+      <c r="L19" s="2">
+        <v>346</v>
+      </c>
+      <c r="M19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H19" s="3">
-        <v>31</v>
-      </c>
-      <c r="I19" s="3">
-        <v>2400000</v>
-      </c>
-      <c r="J19" s="3">
-        <v>5500000</v>
-      </c>
-      <c r="K19" s="2">
-        <v>47</v>
-      </c>
-      <c r="L19" s="2">
-        <v>318</v>
-      </c>
-      <c r="M19" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N19" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+    </row>
+    <row r="20" spans="1:15" ht="19.5" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>16</v>
@@ -1590,42 +1626,42 @@
         <v>18</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H20" s="3">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I20" s="3">
-        <v>2400000</v>
+        <v>2000000</v>
       </c>
       <c r="J20" s="3">
-        <v>2500000</v>
+        <v>3400000</v>
       </c>
       <c r="K20" s="2">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="L20" s="2">
-        <v>500</v>
-      </c>
-      <c r="M20" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N20" s="3" t="b">
+        <v>126</v>
+      </c>
+      <c r="M20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N20" s="2" t="b">
         <v>1</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="19.5" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>16</v>
@@ -1637,42 +1673,42 @@
         <v>18</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H21" s="3">
+        <v>42</v>
+      </c>
+      <c r="I21" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>4800000</v>
+      </c>
+      <c r="K21" s="2">
+        <v>200</v>
+      </c>
+      <c r="L21" s="2">
+        <v>485</v>
+      </c>
+      <c r="M21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O21" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="I21" s="3">
-        <v>2400000</v>
-      </c>
-      <c r="J21" s="3">
-        <v>4500000</v>
-      </c>
-      <c r="K21" s="2">
-        <v>131</v>
-      </c>
-      <c r="L21" s="2">
-        <v>348</v>
-      </c>
-      <c r="M21" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N21" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>16</v>
@@ -1687,25 +1723,25 @@
         <v>19</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="H22" s="3">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I22" s="3">
         <v>2400000</v>
       </c>
       <c r="J22" s="3">
-        <v>5800000</v>
+        <v>3000000</v>
       </c>
       <c r="K22" s="2">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="L22" s="2">
-        <v>461</v>
+        <v>318</v>
       </c>
       <c r="M22" s="3" t="b">
         <v>1</v>
@@ -1714,12 +1750,12 @@
         <v>1</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>16</v>
@@ -1734,25 +1770,25 @@
         <v>19</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="H23" s="3">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I23" s="3">
         <v>2400000</v>
       </c>
       <c r="J23" s="3">
-        <v>3700000</v>
+        <v>3000000</v>
       </c>
       <c r="K23" s="2">
-        <v>74</v>
+        <v>182</v>
       </c>
       <c r="L23" s="2">
-        <v>466</v>
+        <v>318</v>
       </c>
       <c r="M23" s="3" t="b">
         <v>1</v>
@@ -1761,12 +1797,12 @@
         <v>1</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>16</v>
@@ -1781,25 +1817,25 @@
         <v>19</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="H24" s="3">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I24" s="3">
         <v>2400000</v>
       </c>
       <c r="J24" s="3">
-        <v>3200000</v>
+        <v>3000000</v>
       </c>
       <c r="K24" s="2">
-        <v>24</v>
+        <v>182</v>
       </c>
       <c r="L24" s="2">
-        <v>228</v>
+        <v>318</v>
       </c>
       <c r="M24" s="3" t="b">
         <v>1</v>
@@ -1808,12 +1844,12 @@
         <v>1</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>16</v>
@@ -1828,25 +1864,25 @@
         <v>19</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="H25" s="3">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I25" s="3">
         <v>2400000</v>
       </c>
       <c r="J25" s="3">
-        <v>1800000</v>
+        <v>3000000</v>
       </c>
       <c r="K25" s="2">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="L25" s="2">
-        <v>423</v>
+        <v>318</v>
       </c>
       <c r="M25" s="3" t="b">
         <v>1</v>
@@ -1855,12 +1891,12 @@
         <v>1</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>16</v>
@@ -1875,25 +1911,25 @@
         <v>19</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>37</v>
       </c>
       <c r="H26" s="3">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I26" s="3">
         <v>2400000</v>
       </c>
       <c r="J26" s="3">
-        <v>1700000</v>
+        <v>5500000</v>
       </c>
       <c r="K26" s="2">
-        <v>165</v>
+        <v>47</v>
       </c>
       <c r="L26" s="2">
-        <v>131</v>
+        <v>318</v>
       </c>
       <c r="M26" s="3" t="b">
         <v>1</v>
@@ -1905,9 +1941,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="18">
+    <row r="27" spans="1:15">
       <c r="A27" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>16</v>
@@ -1918,29 +1954,29 @@
       <c r="D27" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>40</v>
+      <c r="E27" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H27" s="3">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="I27" s="3">
         <v>2400000</v>
       </c>
       <c r="J27" s="3">
-        <v>4500000</v>
+        <v>5500000</v>
       </c>
       <c r="K27" s="2">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="L27" s="2">
-        <v>415</v>
+        <v>318</v>
       </c>
       <c r="M27" s="3" t="b">
         <v>1</v>
@@ -1949,12 +1985,12 @@
         <v>1</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="18">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>16</v>
@@ -1965,29 +2001,29 @@
       <c r="D28" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>40</v>
+      <c r="E28" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H28" s="3">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I28" s="3">
         <v>2400000</v>
       </c>
       <c r="J28" s="3">
-        <v>4600000</v>
+        <v>5500000</v>
       </c>
       <c r="K28" s="2">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="L28" s="2">
-        <v>81</v>
+        <v>318</v>
       </c>
       <c r="M28" s="3" t="b">
         <v>1</v>
@@ -1996,12 +2032,12 @@
         <v>1</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="18">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>16</v>
@@ -2012,29 +2048,29 @@
       <c r="D29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>40</v>
+      <c r="E29" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H29" s="3">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I29" s="3">
         <v>2400000</v>
       </c>
       <c r="J29" s="3">
-        <v>3500000</v>
+        <v>5500000</v>
       </c>
       <c r="K29" s="2">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="L29" s="2">
-        <v>430</v>
+        <v>318</v>
       </c>
       <c r="M29" s="3" t="b">
         <v>1</v>
@@ -2043,12 +2079,12 @@
         <v>1</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="18">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>16</v>
@@ -2059,29 +2095,29 @@
       <c r="D30" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="3">
         <v>40</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" s="3">
-        <v>36</v>
       </c>
       <c r="I30" s="3">
         <v>2400000</v>
       </c>
       <c r="J30" s="3">
-        <v>1500000</v>
+        <v>2500000</v>
       </c>
       <c r="K30" s="2">
-        <v>164</v>
+        <v>38</v>
       </c>
       <c r="L30" s="2">
-        <v>409</v>
+        <v>500</v>
       </c>
       <c r="M30" s="3" t="b">
         <v>1</v>
@@ -2090,12 +2126,12 @@
         <v>1</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="18">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>16</v>
@@ -2106,29 +2142,29 @@
       <c r="D31" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>40</v>
+      <c r="E31" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H31" s="3">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I31" s="3">
         <v>2400000</v>
       </c>
       <c r="J31" s="3">
-        <v>3700000</v>
+        <v>2500000</v>
       </c>
       <c r="K31" s="2">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="L31" s="2">
-        <v>124</v>
+        <v>500</v>
       </c>
       <c r="M31" s="3" t="b">
         <v>1</v>
@@ -2137,12 +2173,12 @@
         <v>1</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="18">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>16</v>
@@ -2153,29 +2189,29 @@
       <c r="D32" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>40</v>
+      <c r="E32" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H32" s="3">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="I32" s="3">
         <v>2400000</v>
       </c>
       <c r="J32" s="3">
-        <v>6000000</v>
+        <v>2500000</v>
       </c>
       <c r="K32" s="2">
-        <v>171</v>
+        <v>38</v>
       </c>
       <c r="L32" s="2">
-        <v>313</v>
+        <v>500</v>
       </c>
       <c r="M32" s="3" t="b">
         <v>1</v>
@@ -2184,12 +2220,12 @@
         <v>1</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="18">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>16</v>
@@ -2200,29 +2236,29 @@
       <c r="D33" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>40</v>
+      <c r="E33" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H33" s="3">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="I33" s="3">
         <v>2400000</v>
       </c>
       <c r="J33" s="3">
-        <v>2200000</v>
+        <v>2500000</v>
       </c>
       <c r="K33" s="2">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="L33" s="2">
-        <v>449</v>
+        <v>500</v>
       </c>
       <c r="M33" s="3" t="b">
         <v>1</v>
@@ -2231,12 +2267,12 @@
         <v>1</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="18">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>16</v>
@@ -2247,29 +2283,29 @@
       <c r="D34" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="3">
         <v>40</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H34" s="3">
-        <v>35</v>
       </c>
       <c r="I34" s="3">
         <v>2400000</v>
       </c>
       <c r="J34" s="3">
-        <v>1600000</v>
+        <v>4500000</v>
       </c>
       <c r="K34" s="2">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="L34" s="2">
-        <v>26</v>
+        <v>348</v>
       </c>
       <c r="M34" s="3" t="b">
         <v>1</v>
@@ -2278,12 +2314,12 @@
         <v>1</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="18">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>16</v>
@@ -2294,29 +2330,29 @@
       <c r="D35" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>40</v>
+      <c r="E35" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H35" s="3">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I35" s="3">
         <v>2400000</v>
       </c>
       <c r="J35" s="3">
-        <v>1900000</v>
+        <v>4500000</v>
       </c>
       <c r="K35" s="2">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="L35" s="2">
-        <v>94</v>
+        <v>348</v>
       </c>
       <c r="M35" s="3" t="b">
         <v>1</v>
@@ -2325,12 +2361,12 @@
         <v>1</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="18">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>16</v>
@@ -2341,29 +2377,29 @@
       <c r="D36" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>40</v>
+      <c r="E36" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H36" s="3">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I36" s="3">
         <v>2400000</v>
       </c>
       <c r="J36" s="3">
-        <v>5000000</v>
+        <v>4500000</v>
       </c>
       <c r="K36" s="2">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="L36" s="2">
-        <v>387</v>
+        <v>348</v>
       </c>
       <c r="M36" s="3" t="b">
         <v>1</v>
@@ -2372,12 +2408,12 @@
         <v>1</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="18">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>16</v>
@@ -2388,29 +2424,29 @@
       <c r="D37" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>44</v>
+      <c r="E37" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H37" s="3">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="I37" s="3">
         <v>2400000</v>
       </c>
       <c r="J37" s="3">
-        <v>5100000</v>
+        <v>4500000</v>
       </c>
       <c r="K37" s="2">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="L37" s="2">
-        <v>199</v>
+        <v>348</v>
       </c>
       <c r="M37" s="3" t="b">
         <v>1</v>
@@ -2419,12 +2455,12 @@
         <v>1</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="18">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>16</v>
@@ -2435,29 +2471,29 @@
       <c r="D38" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>44</v>
+      <c r="E38" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H38" s="3">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I38" s="3">
         <v>2400000</v>
       </c>
       <c r="J38" s="3">
-        <v>2900000</v>
+        <v>4500000</v>
       </c>
       <c r="K38" s="2">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="L38" s="2">
-        <v>375</v>
+        <v>348</v>
       </c>
       <c r="M38" s="3" t="b">
         <v>1</v>
@@ -2466,12 +2502,12 @@
         <v>1</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="18">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>16</v>
@@ -2482,29 +2518,29 @@
       <c r="D39" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>44</v>
+      <c r="E39" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H39" s="3">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="I39" s="3">
         <v>2400000</v>
       </c>
       <c r="J39" s="3">
-        <v>3400000</v>
+        <v>4500000</v>
       </c>
       <c r="K39" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L39" s="2">
-        <v>424</v>
+        <v>348</v>
       </c>
       <c r="M39" s="3" t="b">
         <v>1</v>
@@ -2513,12 +2549,12 @@
         <v>1</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="18">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>16</v>
@@ -2529,29 +2565,29 @@
       <c r="D40" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" s="3">
         <v>44</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H40" s="3">
-        <v>36</v>
       </c>
       <c r="I40" s="3">
         <v>2400000</v>
       </c>
       <c r="J40" s="3">
-        <v>4700000</v>
+        <v>4500000</v>
       </c>
       <c r="K40" s="2">
-        <v>46</v>
+        <v>131</v>
       </c>
       <c r="L40" s="2">
-        <v>152</v>
+        <v>348</v>
       </c>
       <c r="M40" s="3" t="b">
         <v>1</v>
@@ -2560,12 +2596,12 @@
         <v>1</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="18">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>16</v>
@@ -2576,29 +2612,29 @@
       <c r="D41" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="4" t="s">
-        <v>44</v>
+      <c r="E41" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="H41" s="3">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I41" s="3">
         <v>2400000</v>
       </c>
       <c r="J41" s="3">
-        <v>2500000</v>
+        <v>5800000</v>
       </c>
       <c r="K41" s="2">
-        <v>38</v>
+        <v>166</v>
       </c>
       <c r="L41" s="2">
-        <v>415</v>
+        <v>461</v>
       </c>
       <c r="M41" s="3" t="b">
         <v>1</v>
@@ -2607,12 +2643,12 @@
         <v>1</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="18">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>16</v>
@@ -2623,29 +2659,29 @@
       <c r="D42" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E42" s="4" t="s">
-        <v>44</v>
+      <c r="E42" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="H42" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I42" s="3">
         <v>2400000</v>
       </c>
       <c r="J42" s="3">
-        <v>4700000</v>
+        <v>3700000</v>
       </c>
       <c r="K42" s="2">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="L42" s="2">
-        <v>267</v>
+        <v>466</v>
       </c>
       <c r="M42" s="3" t="b">
         <v>1</v>
@@ -2654,12 +2690,12 @@
         <v>1</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="18">
       <c r="A43" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>16</v>
@@ -2671,28 +2707,28 @@
         <v>18</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="H43" s="3">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I43" s="3">
         <v>2400000</v>
       </c>
       <c r="J43" s="3">
-        <v>3300000</v>
+        <v>4600000</v>
       </c>
       <c r="K43" s="2">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="L43" s="2">
-        <v>426</v>
+        <v>81</v>
       </c>
       <c r="M43" s="3" t="b">
         <v>1</v>
@@ -2701,12 +2737,12 @@
         <v>1</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="18">
       <c r="A44" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>16</v>
@@ -2718,28 +2754,28 @@
         <v>18</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="H44" s="3">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I44" s="3">
         <v>2400000</v>
       </c>
       <c r="J44" s="3">
-        <v>4100000</v>
+        <v>3500000</v>
       </c>
       <c r="K44" s="2">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="L44" s="2">
-        <v>36</v>
+        <v>430</v>
       </c>
       <c r="M44" s="3" t="b">
         <v>1</v>
@@ -2748,12 +2784,12 @@
         <v>1</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="18">
       <c r="A45" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>16</v>
@@ -2765,28 +2801,28 @@
         <v>18</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="H45" s="3">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I45" s="3">
         <v>2400000</v>
       </c>
       <c r="J45" s="3">
-        <v>2900000</v>
+        <v>1500000</v>
       </c>
       <c r="K45" s="2">
-        <v>118</v>
+        <v>164</v>
       </c>
       <c r="L45" s="2">
-        <v>45</v>
+        <v>409</v>
       </c>
       <c r="M45" s="3" t="b">
         <v>1</v>
@@ -2795,15 +2831,15 @@
         <v>1</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="18">
       <c r="A46" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>17</v>
@@ -2812,28 +2848,28 @@
         <v>18</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H46" s="3">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I46" s="3">
         <v>2400000</v>
       </c>
       <c r="J46" s="3">
-        <v>4700000</v>
+        <v>3700000</v>
       </c>
       <c r="K46" s="2">
-        <v>151</v>
+        <v>32</v>
       </c>
       <c r="L46" s="2">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="M46" s="3" t="b">
         <v>1</v>
@@ -2842,15 +2878,15 @@
         <v>1</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="18">
       <c r="A47" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>17</v>
@@ -2859,28 +2895,28 @@
         <v>18</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H47" s="3">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I47" s="3">
         <v>2400000</v>
       </c>
       <c r="J47" s="3">
-        <v>1400000</v>
+        <v>6000000</v>
       </c>
       <c r="K47" s="2">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="L47" s="2">
-        <v>245</v>
+        <v>313</v>
       </c>
       <c r="M47" s="3" t="b">
         <v>1</v>
@@ -2889,15 +2925,15 @@
         <v>1</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="18">
       <c r="A48" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>17</v>
@@ -2906,28 +2942,28 @@
         <v>18</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H48" s="3">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I48" s="3">
         <v>2400000</v>
       </c>
       <c r="J48" s="3">
-        <v>5000000</v>
+        <v>2200000</v>
       </c>
       <c r="K48" s="2">
-        <v>172</v>
+        <v>29</v>
       </c>
       <c r="L48" s="2">
-        <v>317</v>
+        <v>449</v>
       </c>
       <c r="M48" s="3" t="b">
         <v>1</v>
@@ -2936,15 +2972,15 @@
         <v>1</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="18">
       <c r="A49" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>17</v>
@@ -2953,28 +2989,28 @@
         <v>18</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H49" s="3">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I49" s="3">
         <v>2400000</v>
       </c>
       <c r="J49" s="3">
-        <v>2700000</v>
+        <v>1600000</v>
       </c>
       <c r="K49" s="2">
-        <v>196</v>
+        <v>111</v>
       </c>
       <c r="L49" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M49" s="3" t="b">
         <v>1</v>
@@ -2983,45 +3019,45 @@
         <v>1</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="18">
       <c r="A50" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G50" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="H50" s="3">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I50" s="3">
         <v>2400000</v>
       </c>
       <c r="J50" s="3">
-        <v>3000000</v>
+        <v>1600000</v>
       </c>
       <c r="K50" s="2">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="L50" s="2">
-        <v>327</v>
+        <v>26</v>
       </c>
       <c r="M50" s="3" t="b">
         <v>1</v>
@@ -3030,15 +3066,15 @@
         <v>1</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="15.75">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="18">
       <c r="A51" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>17</v>
@@ -3046,29 +3082,29 @@
       <c r="D51" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E51" s="5" t="s">
-        <v>53</v>
+      <c r="E51" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="H51" s="3">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I51" s="3">
         <v>2400000</v>
       </c>
       <c r="J51" s="3">
-        <v>5600000</v>
+        <v>1600000</v>
       </c>
       <c r="K51" s="2">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="L51" s="2">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="M51" s="3" t="b">
         <v>1</v>
@@ -3077,15 +3113,15 @@
         <v>1</v>
       </c>
       <c r="O51" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="15.75">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="18">
       <c r="A52" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>17</v>
@@ -3093,29 +3129,29 @@
       <c r="D52" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E52" s="5" t="s">
-        <v>53</v>
+      <c r="E52" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="H52" s="3">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I52" s="3">
         <v>2400000</v>
       </c>
       <c r="J52" s="3">
-        <v>1800000</v>
+        <v>1600000</v>
       </c>
       <c r="K52" s="2">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="L52" s="2">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="M52" s="3" t="b">
         <v>1</v>
@@ -3124,15 +3160,15 @@
         <v>1</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="15.75">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="18">
       <c r="A53" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>17</v>
@@ -3140,29 +3176,29 @@
       <c r="D53" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E53" s="5" t="s">
-        <v>53</v>
+      <c r="E53" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="H53" s="3">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I53" s="3">
         <v>2400000</v>
       </c>
       <c r="J53" s="3">
-        <v>3600000</v>
+        <v>1600000</v>
       </c>
       <c r="K53" s="2">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c r="L53" s="2">
-        <v>369</v>
+        <v>26</v>
       </c>
       <c r="M53" s="3" t="b">
         <v>1</v>
@@ -3171,15 +3207,15 @@
         <v>1</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="15.75">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="18">
       <c r="A54" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>17</v>
@@ -3187,29 +3223,29 @@
       <c r="D54" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E54" s="5" t="s">
-        <v>53</v>
+      <c r="E54" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H54" s="3">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I54" s="3">
         <v>2400000</v>
       </c>
       <c r="J54" s="3">
-        <v>5700000</v>
+        <v>5100000</v>
       </c>
       <c r="K54" s="2">
-        <v>31</v>
+        <v>149</v>
       </c>
       <c r="L54" s="2">
-        <v>409</v>
+        <v>199</v>
       </c>
       <c r="M54" s="3" t="b">
         <v>1</v>
@@ -3218,215 +3254,215 @@
         <v>1</v>
       </c>
       <c r="O54" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="18">
+      <c r="A55" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H55" s="3">
+        <v>41</v>
+      </c>
+      <c r="I55" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="J55" s="3">
+        <v>5100000</v>
+      </c>
+      <c r="K55" s="2">
+        <v>149</v>
+      </c>
+      <c r="L55" s="2">
+        <v>199</v>
+      </c>
+      <c r="M55" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N55" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O55" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="18">
+      <c r="A56" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H56" s="3">
+        <v>42</v>
+      </c>
+      <c r="I56" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="J56" s="3">
+        <v>5100000</v>
+      </c>
+      <c r="K56" s="2">
+        <v>149</v>
+      </c>
+      <c r="L56" s="2">
+        <v>199</v>
+      </c>
+      <c r="M56" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N56" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O56" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="18">
+      <c r="A57" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H57" s="3">
+        <v>33</v>
+      </c>
+      <c r="I57" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="J57" s="3">
+        <v>5100000</v>
+      </c>
+      <c r="K57" s="2">
+        <v>149</v>
+      </c>
+      <c r="L57" s="2">
+        <v>199</v>
+      </c>
+      <c r="M57" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N57" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="18">
+      <c r="A58" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H58" s="3">
+        <v>34</v>
+      </c>
+      <c r="I58" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="J58" s="3">
+        <v>2900000</v>
+      </c>
+      <c r="K58" s="2">
+        <v>113</v>
+      </c>
+      <c r="L58" s="2">
+        <v>375</v>
+      </c>
+      <c r="M58" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N58" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="18">
+      <c r="A59" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" ht="15.75">
-      <c r="A55" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H55" s="3">
+      <c r="B59" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="I55" s="3">
-        <v>3000000</v>
-      </c>
-      <c r="J55" s="3">
-        <v>3300000</v>
-      </c>
-      <c r="K55" s="2">
-        <v>22</v>
-      </c>
-      <c r="L55" s="2">
-        <v>358</v>
-      </c>
-      <c r="M55" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N55" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O55" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" ht="15.75">
-      <c r="A56" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H56" s="3">
-        <v>36</v>
-      </c>
-      <c r="I56" s="3">
-        <v>3000000</v>
-      </c>
-      <c r="J56" s="3">
-        <v>6000000</v>
-      </c>
-      <c r="K56" s="2">
-        <v>11</v>
-      </c>
-      <c r="L56" s="2">
-        <v>79</v>
-      </c>
-      <c r="M56" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N56" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O56" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" ht="15.75">
-      <c r="A57" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H57" s="3">
-        <v>37</v>
-      </c>
-      <c r="I57" s="3">
-        <v>3000000</v>
-      </c>
-      <c r="J57" s="3">
-        <v>5000000</v>
-      </c>
-      <c r="K57" s="2">
-        <v>83</v>
-      </c>
-      <c r="L57" s="2">
-        <v>148</v>
-      </c>
-      <c r="M57" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N57" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" ht="15.75">
-      <c r="A58" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H58" s="3">
-        <v>38</v>
-      </c>
-      <c r="I58" s="3">
-        <v>3000000</v>
-      </c>
-      <c r="J58" s="3">
-        <v>2300000</v>
-      </c>
-      <c r="K58" s="2">
-        <v>184</v>
-      </c>
-      <c r="L58" s="2">
-        <v>461</v>
-      </c>
-      <c r="M58" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N58" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" ht="15.75">
-      <c r="A59" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>21</v>
@@ -3435,16 +3471,16 @@
         <v>39</v>
       </c>
       <c r="I59" s="3">
-        <v>3000000</v>
+        <v>2400000</v>
       </c>
       <c r="J59" s="3">
-        <v>1700000</v>
+        <v>2500000</v>
       </c>
       <c r="K59" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="L59" s="2">
-        <v>179</v>
+        <v>415</v>
       </c>
       <c r="M59" s="3" t="b">
         <v>1</v>
@@ -3453,27 +3489,27 @@
         <v>1</v>
       </c>
       <c r="O59" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" ht="15.75">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="18">
       <c r="A60" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>49</v>
+        <v>54</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E60" s="5" t="s">
-        <v>53</v>
+      <c r="E60" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>21</v>
@@ -3482,16 +3518,16 @@
         <v>40</v>
       </c>
       <c r="I60" s="3">
-        <v>3000000</v>
+        <v>2400000</v>
       </c>
       <c r="J60" s="3">
-        <v>3700000</v>
+        <v>2500000</v>
       </c>
       <c r="K60" s="2">
-        <v>123</v>
+        <v>38</v>
       </c>
       <c r="L60" s="2">
-        <v>317</v>
+        <v>415</v>
       </c>
       <c r="M60" s="3" t="b">
         <v>1</v>
@@ -3500,27 +3536,27 @@
         <v>1</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" ht="15.75">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="18">
       <c r="A61" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>49</v>
+        <v>54</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E61" s="5" t="s">
-        <v>53</v>
+      <c r="E61" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>21</v>
@@ -3529,16 +3565,16 @@
         <v>41</v>
       </c>
       <c r="I61" s="3">
-        <v>3000000</v>
+        <v>2400000</v>
       </c>
       <c r="J61" s="3">
-        <v>3500000</v>
+        <v>2500000</v>
       </c>
       <c r="K61" s="2">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="L61" s="2">
-        <v>353</v>
+        <v>415</v>
       </c>
       <c r="M61" s="3" t="b">
         <v>1</v>
@@ -3547,45 +3583,45 @@
         <v>1</v>
       </c>
       <c r="O61" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" ht="15.75">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="18">
       <c r="A62" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>49</v>
+        <v>54</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E62" s="5" t="s">
-        <v>53</v>
+      <c r="E62" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H62" s="3">
         <v>42</v>
       </c>
       <c r="I62" s="3">
-        <v>3000000</v>
+        <v>2400000</v>
       </c>
       <c r="J62" s="3">
-        <v>5800000</v>
+        <v>2500000</v>
       </c>
       <c r="K62" s="2">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="L62" s="2">
-        <v>268</v>
+        <v>415</v>
       </c>
       <c r="M62" s="3" t="b">
         <v>1</v>
@@ -3594,45 +3630,45 @@
         <v>1</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" ht="15.75">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="18">
       <c r="A63" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>49</v>
+        <v>54</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E63" s="5" t="s">
-        <v>53</v>
+      <c r="E63" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H63" s="3">
         <v>43</v>
       </c>
       <c r="I63" s="3">
-        <v>3000000</v>
+        <v>2400000</v>
       </c>
       <c r="J63" s="3">
-        <v>5000000</v>
+        <v>4700000</v>
       </c>
       <c r="K63" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="L63" s="2">
-        <v>461</v>
+        <v>267</v>
       </c>
       <c r="M63" s="3" t="b">
         <v>1</v>
@@ -3641,233 +3677,233 @@
         <v>1</v>
       </c>
       <c r="O63" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="18">
+      <c r="A64" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H64" s="3">
+        <v>44</v>
+      </c>
+      <c r="I64" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="J64" s="3">
+        <v>3300000</v>
+      </c>
+      <c r="K64" s="2">
+        <v>15</v>
+      </c>
+      <c r="L64" s="2">
+        <v>426</v>
+      </c>
+      <c r="M64" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N64" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O64" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="18">
+      <c r="A65" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" ht="15.75">
-      <c r="A64" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H64" s="3">
+      <c r="B65" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H65" s="3">
         <v>40</v>
       </c>
-      <c r="I64" s="3">
-        <v>3000000</v>
-      </c>
-      <c r="J64" s="3">
-        <v>5600000</v>
-      </c>
-      <c r="K64" s="2">
-        <v>123</v>
-      </c>
-      <c r="L64" s="2">
-        <v>34</v>
-      </c>
-      <c r="M64" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N64" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O64" s="3" t="s">
+      <c r="I65" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="J65" s="3">
+        <v>4700000</v>
+      </c>
+      <c r="K65" s="2">
+        <v>151</v>
+      </c>
+      <c r="L65" s="2">
+        <v>160</v>
+      </c>
+      <c r="M65" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N65" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O65" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="18">
+      <c r="A66" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" ht="15.75">
-      <c r="A65" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H65" s="3">
+      <c r="B66" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H66" s="3">
         <v>41</v>
       </c>
-      <c r="I65" s="3">
-        <v>3000000</v>
-      </c>
-      <c r="J65" s="3">
-        <v>1300000</v>
-      </c>
-      <c r="K65" s="2">
-        <v>178</v>
-      </c>
-      <c r="L65" s="2">
-        <v>433</v>
-      </c>
-      <c r="M65" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N65" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O65" s="3" t="s">
+      <c r="I66" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>4700000</v>
+      </c>
+      <c r="K66" s="2">
+        <v>151</v>
+      </c>
+      <c r="L66" s="2">
+        <v>160</v>
+      </c>
+      <c r="M66" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N66" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="18">
+      <c r="A67" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" ht="15.75">
-      <c r="A66" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H66" s="3">
+      <c r="C67" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H67" s="3">
         <v>42</v>
       </c>
-      <c r="I66" s="3">
-        <v>3000000</v>
-      </c>
-      <c r="J66" s="3">
-        <v>2600000</v>
-      </c>
-      <c r="K66" s="2">
-        <v>65</v>
-      </c>
-      <c r="L66" s="2">
-        <v>123</v>
-      </c>
-      <c r="M66" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N66" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O66" s="3" t="s">
+      <c r="I67" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="J67" s="3">
+        <v>4700000</v>
+      </c>
+      <c r="K67" s="2">
+        <v>151</v>
+      </c>
+      <c r="L67" s="2">
+        <v>160</v>
+      </c>
+      <c r="M67" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N67" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O67" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="18">
+      <c r="A68" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" ht="15.75">
-      <c r="A67" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H67" s="3">
-        <v>43</v>
-      </c>
-      <c r="I67" s="3">
-        <v>3000000</v>
-      </c>
-      <c r="J67" s="3">
-        <v>4100000</v>
-      </c>
-      <c r="K67" s="2">
-        <v>19</v>
-      </c>
-      <c r="L67" s="2">
-        <v>321</v>
-      </c>
-      <c r="M67" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N67" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O67" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" ht="15.75">
-      <c r="A68" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="C68" s="2" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E68" s="5" t="s">
-        <v>53</v>
+      <c r="E68" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>37</v>
       </c>
       <c r="H68" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I68" s="3">
-        <v>3000000</v>
+        <v>2400000</v>
       </c>
       <c r="J68" s="3">
-        <v>1200000</v>
+        <v>4700000</v>
       </c>
       <c r="K68" s="2">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="L68" s="2">
-        <v>379</v>
+        <v>160</v>
       </c>
       <c r="M68" s="3" t="b">
         <v>1</v>
@@ -3876,92 +3912,92 @@
         <v>1</v>
       </c>
       <c r="O68" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="18">
+      <c r="A69" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" ht="15.75">
-      <c r="A69" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="C69" s="2" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="5" t="s">
-        <v>53</v>
+      <c r="E69" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>37</v>
       </c>
       <c r="H69" s="3">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I69" s="3">
-        <v>3000000</v>
+        <v>2400000</v>
       </c>
       <c r="J69" s="3">
-        <v>2600000</v>
+        <v>4700000</v>
       </c>
       <c r="K69" s="2">
+        <v>151</v>
+      </c>
+      <c r="L69" s="2">
+        <v>160</v>
+      </c>
+      <c r="M69" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N69" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O69" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="18">
+      <c r="A70" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="L69" s="2">
-        <v>20</v>
-      </c>
-      <c r="M69" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N69" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O69" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" ht="15.75">
-      <c r="A70" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="C70" s="2" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E70" s="5" t="s">
-        <v>53</v>
+      <c r="E70" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>37</v>
       </c>
       <c r="H70" s="3">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I70" s="3">
-        <v>3000000</v>
+        <v>2400000</v>
       </c>
       <c r="J70" s="3">
-        <v>4400000</v>
+        <v>4700000</v>
       </c>
       <c r="K70" s="2">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="L70" s="2">
-        <v>216</v>
+        <v>160</v>
       </c>
       <c r="M70" s="3" t="b">
         <v>1</v>
@@ -3970,45 +4006,45 @@
         <v>1</v>
       </c>
       <c r="O70" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="18">
+      <c r="A71" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" ht="15.75">
-      <c r="A71" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="C71" s="2" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E71" s="5" t="s">
-        <v>53</v>
+      <c r="E71" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>37</v>
       </c>
       <c r="H71" s="3">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I71" s="3">
-        <v>3000000</v>
+        <v>2400000</v>
       </c>
       <c r="J71" s="3">
-        <v>4300000</v>
+        <v>4700000</v>
       </c>
       <c r="K71" s="2">
-        <v>40</v>
+        <v>151</v>
       </c>
       <c r="L71" s="2">
-        <v>233</v>
+        <v>160</v>
       </c>
       <c r="M71" s="3" t="b">
         <v>1</v>
@@ -4017,45 +4053,45 @@
         <v>1</v>
       </c>
       <c r="O71" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="18">
+      <c r="A72" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" ht="15.75">
-      <c r="A72" s="3" t="s">
+      <c r="C72" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="F72" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H72" s="3">
         <v>40</v>
       </c>
       <c r="I72" s="3">
-        <v>3000000</v>
+        <v>2400000</v>
       </c>
       <c r="J72" s="3">
-        <v>1300000</v>
+        <v>4700000</v>
       </c>
       <c r="K72" s="2">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="L72" s="2">
-        <v>310</v>
+        <v>160</v>
       </c>
       <c r="M72" s="3" t="b">
         <v>1</v>
@@ -4064,45 +4100,45 @@
         <v>1</v>
       </c>
       <c r="O72" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" ht="15.75">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="18">
       <c r="A73" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="F73" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H73" s="3">
         <v>41</v>
       </c>
       <c r="I73" s="3">
-        <v>3000000</v>
+        <v>2400000</v>
       </c>
       <c r="J73" s="3">
-        <v>5600000</v>
+        <v>4700000</v>
       </c>
       <c r="K73" s="2">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L73" s="2">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="M73" s="3" t="b">
         <v>1</v>
@@ -4111,186 +4147,186 @@
         <v>1</v>
       </c>
       <c r="O73" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" ht="15.75">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="18">
       <c r="A74" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="F74" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H74" s="3">
         <v>42</v>
       </c>
       <c r="I74" s="3">
-        <v>3000000</v>
+        <v>2400000</v>
       </c>
       <c r="J74" s="3">
-        <v>5100000</v>
+        <v>4700000</v>
       </c>
       <c r="K74" s="2">
+        <v>151</v>
+      </c>
+      <c r="L74" s="2">
+        <v>160</v>
+      </c>
+      <c r="M74" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N74" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O74" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="18">
+      <c r="A75" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H75" s="3">
+        <v>40</v>
+      </c>
+      <c r="I75" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="J75" s="3">
+        <v>4700000</v>
+      </c>
+      <c r="K75" s="2">
+        <v>151</v>
+      </c>
+      <c r="L75" s="2">
+        <v>160</v>
+      </c>
+      <c r="M75" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N75" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O75" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="18">
+      <c r="A76" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H76" s="3">
         <v>41</v>
       </c>
-      <c r="L74" s="2">
-        <v>152</v>
-      </c>
-      <c r="M74" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N74" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O74" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" ht="15.75">
-      <c r="A75" s="3" t="s">
+      <c r="I76" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>4700000</v>
+      </c>
+      <c r="K76" s="2">
+        <v>151</v>
+      </c>
+      <c r="L76" s="2">
+        <v>160</v>
+      </c>
+      <c r="M76" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N76" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="18">
+      <c r="A77" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H75" s="3">
-        <v>43</v>
-      </c>
-      <c r="I75" s="3">
-        <v>3000000</v>
-      </c>
-      <c r="J75" s="3">
-        <v>2900000</v>
-      </c>
-      <c r="K75" s="2">
-        <v>152</v>
-      </c>
-      <c r="L75" s="2">
-        <v>152</v>
-      </c>
-      <c r="M75" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N75" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O75" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" ht="15.75">
-      <c r="A76" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H76" s="3">
-        <v>44</v>
-      </c>
-      <c r="I76" s="3">
-        <v>3000000</v>
-      </c>
-      <c r="J76" s="3">
-        <v>2300000</v>
-      </c>
-      <c r="K76" s="2">
-        <v>130</v>
-      </c>
-      <c r="L76" s="2">
-        <v>464</v>
-      </c>
-      <c r="M76" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N76" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" ht="15.75">
-      <c r="A77" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="F77" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="H77" s="3">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I77" s="3">
-        <v>3000000</v>
+        <v>2400000</v>
       </c>
       <c r="J77" s="3">
-        <v>1200000</v>
+        <v>4700000</v>
       </c>
       <c r="K77" s="2">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="L77" s="2">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="M77" s="3" t="b">
         <v>1</v>
@@ -4302,42 +4338,42 @@
         <v>64</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="15.75">
+    <row r="78" spans="1:15" ht="18">
       <c r="A78" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="F78" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="H78" s="3">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I78" s="3">
-        <v>3000000</v>
+        <v>2400000</v>
       </c>
       <c r="J78" s="3">
-        <v>2600000</v>
+        <v>4700000</v>
       </c>
       <c r="K78" s="2">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="L78" s="2">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="M78" s="3" t="b">
         <v>1</v>
@@ -4346,45 +4382,45 @@
         <v>1</v>
       </c>
       <c r="O78" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" ht="15.75">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="18">
       <c r="A79" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B79" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="F79" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="H79" s="3">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I79" s="3">
-        <v>3000000</v>
+        <v>2400000</v>
       </c>
       <c r="J79" s="3">
-        <v>4400000</v>
+        <v>1400000</v>
       </c>
       <c r="K79" s="2">
-        <v>62</v>
+        <v>151</v>
       </c>
       <c r="L79" s="2">
-        <v>320</v>
+        <v>245</v>
       </c>
       <c r="M79" s="3" t="b">
         <v>1</v>
@@ -4393,45 +4429,45 @@
         <v>1</v>
       </c>
       <c r="O79" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" ht="15.75">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="18">
       <c r="A80" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B80" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="F80" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="H80" s="3">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I80" s="3">
-        <v>3000000</v>
+        <v>2400000</v>
       </c>
       <c r="J80" s="3">
-        <v>4700000</v>
+        <v>5000000</v>
       </c>
       <c r="K80" s="2">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="L80" s="2">
-        <v>448</v>
+        <v>317</v>
       </c>
       <c r="M80" s="3" t="b">
         <v>1</v>
@@ -4440,45 +4476,45 @@
         <v>1</v>
       </c>
       <c r="O80" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="15.75">
       <c r="A81" s="3" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E81" s="6" t="s">
-        <v>61</v>
+      <c r="E81" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="H81" s="3">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="I81" s="3">
-        <v>3000000</v>
+        <v>2400000</v>
       </c>
       <c r="J81" s="3">
-        <v>2000000</v>
+        <v>5600000</v>
       </c>
       <c r="K81" s="2">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="L81" s="2">
-        <v>452</v>
+        <v>62</v>
       </c>
       <c r="M81" s="3" t="b">
         <v>1</v>
@@ -4487,45 +4523,45 @@
         <v>1</v>
       </c>
       <c r="O81" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="15.75">
       <c r="A82" s="3" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E82" s="6" t="s">
-        <v>61</v>
+      <c r="E82" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="H82" s="3">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I82" s="3">
-        <v>3000000</v>
+        <v>2400000</v>
       </c>
       <c r="J82" s="3">
-        <v>4900000</v>
+        <v>1800000</v>
       </c>
       <c r="K82" s="2">
-        <v>162</v>
+        <v>50</v>
       </c>
       <c r="L82" s="2">
-        <v>151</v>
+        <v>6</v>
       </c>
       <c r="M82" s="3" t="b">
         <v>1</v>
@@ -4534,45 +4570,45 @@
         <v>1</v>
       </c>
       <c r="O82" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="15.75">
       <c r="A83" s="3" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E83" s="6" t="s">
-        <v>61</v>
+      <c r="E83" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H83" s="3">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I83" s="3">
-        <v>3000000</v>
+        <v>2400000</v>
       </c>
       <c r="J83" s="3">
-        <v>4300000</v>
+        <v>3600000</v>
       </c>
       <c r="K83" s="2">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="L83" s="2">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="M83" s="3" t="b">
         <v>1</v>
@@ -4581,45 +4617,45 @@
         <v>1</v>
       </c>
       <c r="O83" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="15.75">
       <c r="A84" s="3" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E84" s="6" t="s">
-        <v>61</v>
+      <c r="E84" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H84" s="3">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I84" s="3">
-        <v>3000000</v>
+        <v>2400000</v>
       </c>
       <c r="J84" s="3">
-        <v>2700000</v>
+        <v>5700000</v>
       </c>
       <c r="K84" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="L84" s="2">
-        <v>115</v>
+        <v>409</v>
       </c>
       <c r="M84" s="3" t="b">
         <v>1</v>
@@ -4628,24 +4664,24 @@
         <v>1</v>
       </c>
       <c r="O84" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="15.75">
       <c r="A85" s="3" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E85" s="6" t="s">
-        <v>61</v>
+      <c r="E85" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>25</v>
@@ -4654,19 +4690,19 @@
         <v>21</v>
       </c>
       <c r="H85" s="3">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I85" s="3">
         <v>3000000</v>
       </c>
       <c r="J85" s="3">
-        <v>2900000</v>
+        <v>3700000</v>
       </c>
       <c r="K85" s="2">
-        <v>191</v>
+        <v>123</v>
       </c>
       <c r="L85" s="2">
-        <v>43</v>
+        <v>317</v>
       </c>
       <c r="M85" s="3" t="b">
         <v>1</v>
@@ -4675,24 +4711,24 @@
         <v>1</v>
       </c>
       <c r="O85" s="3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="15.75">
       <c r="A86" s="3" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E86" s="6" t="s">
-        <v>61</v>
+      <c r="E86" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>25</v>
@@ -4701,19 +4737,19 @@
         <v>21</v>
       </c>
       <c r="H86" s="3">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I86" s="3">
         <v>3000000</v>
       </c>
       <c r="J86" s="3">
-        <v>3800000</v>
+        <v>3500000</v>
       </c>
       <c r="K86" s="2">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="L86" s="2">
-        <v>267</v>
+        <v>353</v>
       </c>
       <c r="M86" s="3" t="b">
         <v>1</v>
@@ -4722,24 +4758,24 @@
         <v>1</v>
       </c>
       <c r="O86" s="3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="15.75">
       <c r="A87" s="3" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E87" s="6" t="s">
-        <v>61</v>
+      <c r="E87" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>25</v>
@@ -4748,19 +4784,19 @@
         <v>21</v>
       </c>
       <c r="H87" s="3">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I87" s="3">
         <v>3000000</v>
       </c>
       <c r="J87" s="3">
-        <v>1700000</v>
+        <v>5800000</v>
       </c>
       <c r="K87" s="2">
-        <v>182</v>
+        <v>122</v>
       </c>
       <c r="L87" s="2">
-        <v>326</v>
+        <v>268</v>
       </c>
       <c r="M87" s="3" t="b">
         <v>1</v>
@@ -4769,45 +4805,45 @@
         <v>1</v>
       </c>
       <c r="O87" s="3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="15.75">
       <c r="A88" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E88" s="6" t="s">
-        <v>61</v>
+      <c r="E88" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="H88" s="3">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I88" s="3">
         <v>3000000</v>
       </c>
       <c r="J88" s="3">
-        <v>5100000</v>
+        <v>5000000</v>
       </c>
       <c r="K88" s="2">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="L88" s="2">
-        <v>377</v>
+        <v>461</v>
       </c>
       <c r="M88" s="3" t="b">
         <v>1</v>
@@ -4816,45 +4852,45 @@
         <v>1</v>
       </c>
       <c r="O88" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="15.75">
       <c r="A89" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E89" s="6" t="s">
-        <v>61</v>
+      <c r="E89" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="H89" s="3">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I89" s="3">
         <v>3000000</v>
       </c>
       <c r="J89" s="3">
-        <v>2400000</v>
+        <v>5600000</v>
       </c>
       <c r="K89" s="2">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="L89" s="2">
-        <v>440</v>
+        <v>34</v>
       </c>
       <c r="M89" s="3" t="b">
         <v>1</v>
@@ -4863,45 +4899,45 @@
         <v>1</v>
       </c>
       <c r="O89" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="15.75">
       <c r="A90" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E90" s="6" t="s">
-        <v>61</v>
+      <c r="E90" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="H90" s="3">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I90" s="3">
         <v>3000000</v>
       </c>
       <c r="J90" s="3">
-        <v>2700000</v>
+        <v>1300000</v>
       </c>
       <c r="K90" s="2">
-        <v>100</v>
+        <v>178</v>
       </c>
       <c r="L90" s="2">
-        <v>328</v>
+        <v>433</v>
       </c>
       <c r="M90" s="3" t="b">
         <v>1</v>
@@ -4910,45 +4946,45 @@
         <v>1</v>
       </c>
       <c r="O90" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="15.75">
       <c r="A91" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E91" s="6" t="s">
-        <v>61</v>
+      <c r="E91" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="H91" s="3">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I91" s="3">
         <v>3000000</v>
       </c>
       <c r="J91" s="3">
-        <v>2400000</v>
+        <v>2600000</v>
       </c>
       <c r="K91" s="2">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="L91" s="2">
-        <v>429</v>
+        <v>123</v>
       </c>
       <c r="M91" s="3" t="b">
         <v>1</v>
@@ -4957,30 +4993,30 @@
         <v>1</v>
       </c>
       <c r="O91" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="15.75">
       <c r="A92" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E92" s="6" t="s">
-        <v>61</v>
+      <c r="E92" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="H92" s="3">
         <v>44</v>
@@ -4989,13 +5025,13 @@
         <v>3000000</v>
       </c>
       <c r="J92" s="3">
-        <v>2200000</v>
+        <v>1200000</v>
       </c>
       <c r="K92" s="2">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="L92" s="2">
-        <v>148</v>
+        <v>379</v>
       </c>
       <c r="M92" s="3" t="b">
         <v>1</v>
@@ -5004,45 +5040,45 @@
         <v>1</v>
       </c>
       <c r="O92" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="15.75">
       <c r="A93" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F93" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="H93" s="3">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I93" s="3">
         <v>3000000</v>
       </c>
       <c r="J93" s="3">
-        <v>4100000</v>
+        <v>1300000</v>
       </c>
       <c r="K93" s="2">
-        <v>166</v>
+        <v>82</v>
       </c>
       <c r="L93" s="2">
-        <v>466</v>
+        <v>310</v>
       </c>
       <c r="M93" s="3" t="b">
         <v>1</v>
@@ -5051,24 +5087,24 @@
         <v>1</v>
       </c>
       <c r="O93" s="3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="15.75">
       <c r="A94" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>25</v>
@@ -5077,19 +5113,19 @@
         <v>37</v>
       </c>
       <c r="H94" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I94" s="3">
         <v>3000000</v>
       </c>
       <c r="J94" s="3">
-        <v>1400000</v>
+        <v>5600000</v>
       </c>
       <c r="K94" s="2">
-        <v>35</v>
+        <v>131</v>
       </c>
       <c r="L94" s="2">
-        <v>142</v>
+        <v>300</v>
       </c>
       <c r="M94" s="3" t="b">
         <v>1</v>
@@ -5098,24 +5134,24 @@
         <v>1</v>
       </c>
       <c r="O94" s="3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="15.75">
       <c r="A95" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>25</v>
@@ -5124,19 +5160,19 @@
         <v>37</v>
       </c>
       <c r="H95" s="3">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I95" s="3">
         <v>3000000</v>
       </c>
       <c r="J95" s="3">
-        <v>5300000</v>
+        <v>5100000</v>
       </c>
       <c r="K95" s="2">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="L95" s="2">
-        <v>490</v>
+        <v>152</v>
       </c>
       <c r="M95" s="3" t="b">
         <v>1</v>
@@ -5145,45 +5181,45 @@
         <v>1</v>
       </c>
       <c r="O95" s="3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="15.75">
       <c r="A96" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="H96" s="3">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I96" s="3">
         <v>3000000</v>
       </c>
       <c r="J96" s="3">
-        <v>6000000</v>
+        <v>1200000</v>
       </c>
       <c r="K96" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="L96" s="2">
-        <v>370</v>
+        <v>153</v>
       </c>
       <c r="M96" s="3" t="b">
         <v>1</v>
@@ -5192,45 +5228,45 @@
         <v>1</v>
       </c>
       <c r="O96" s="3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="15.75">
       <c r="A97" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="H97" s="3">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I97" s="3">
         <v>3000000</v>
       </c>
       <c r="J97" s="3">
-        <v>4700000</v>
+        <v>2600000</v>
       </c>
       <c r="K97" s="2">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="L97" s="2">
-        <v>479</v>
+        <v>189</v>
       </c>
       <c r="M97" s="3" t="b">
         <v>1</v>
@@ -5239,45 +5275,45 @@
         <v>1</v>
       </c>
       <c r="O97" s="3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="15.75">
       <c r="A98" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="H98" s="3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I98" s="3">
         <v>3000000</v>
       </c>
       <c r="J98" s="3">
-        <v>2100000</v>
+        <v>4400000</v>
       </c>
       <c r="K98" s="2">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="L98" s="2">
-        <v>47</v>
+        <v>320</v>
       </c>
       <c r="M98" s="3" t="b">
         <v>1</v>
@@ -5286,45 +5322,45 @@
         <v>1</v>
       </c>
       <c r="O98" s="3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="99" spans="1:15" ht="15.75">
       <c r="A99" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F99" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="H99" s="3">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I99" s="3">
         <v>3000000</v>
       </c>
       <c r="J99" s="3">
-        <v>3200000</v>
+        <v>4700000</v>
       </c>
       <c r="K99" s="2">
-        <v>31</v>
+        <v>181</v>
       </c>
       <c r="L99" s="2">
-        <v>322</v>
+        <v>448</v>
       </c>
       <c r="M99" s="3" t="b">
         <v>1</v>
@@ -5333,24 +5369,24 @@
         <v>1</v>
       </c>
       <c r="O99" s="3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="100" spans="1:15" ht="15.75">
       <c r="A100" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>25</v>
@@ -5359,19 +5395,19 @@
         <v>21</v>
       </c>
       <c r="H100" s="3">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I100" s="3">
-        <v>3200000</v>
+        <v>3000000</v>
       </c>
       <c r="J100" s="3">
-        <v>4500000</v>
+        <v>4300000</v>
       </c>
       <c r="K100" s="2">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="L100" s="2">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="M100" s="3" t="b">
         <v>1</v>
@@ -5380,24 +5416,24 @@
         <v>1</v>
       </c>
       <c r="O100" s="3" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="101" spans="1:15" ht="15.75">
       <c r="A101" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>25</v>
@@ -5406,19 +5442,19 @@
         <v>21</v>
       </c>
       <c r="H101" s="3">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I101" s="3">
-        <v>3200000</v>
+        <v>3000000</v>
       </c>
       <c r="J101" s="3">
-        <v>1800000</v>
+        <v>2700000</v>
       </c>
       <c r="K101" s="2">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="L101" s="2">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="M101" s="3" t="b">
         <v>1</v>
@@ -5427,24 +5463,24 @@
         <v>1</v>
       </c>
       <c r="O101" s="3" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="15.75">
       <c r="A102" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>25</v>
@@ -5453,19 +5489,19 @@
         <v>21</v>
       </c>
       <c r="H102" s="3">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I102" s="3">
-        <v>3200000</v>
+        <v>3000000</v>
       </c>
       <c r="J102" s="3">
-        <v>2300000</v>
+        <v>2900000</v>
       </c>
       <c r="K102" s="2">
-        <v>5</v>
+        <v>191</v>
       </c>
       <c r="L102" s="2">
-        <v>449</v>
+        <v>43</v>
       </c>
       <c r="M102" s="3" t="b">
         <v>1</v>
@@ -5474,45 +5510,45 @@
         <v>1</v>
       </c>
       <c r="O102" s="3" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="15.75">
       <c r="A103" s="3" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="H103" s="3">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I103" s="3">
-        <v>3200000</v>
+        <v>3000000</v>
       </c>
       <c r="J103" s="3">
-        <v>4800000</v>
+        <v>5100000</v>
       </c>
       <c r="K103" s="2">
-        <v>199</v>
+        <v>108</v>
       </c>
       <c r="L103" s="2">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="M103" s="3" t="b">
         <v>1</v>
@@ -5521,45 +5557,45 @@
         <v>1</v>
       </c>
       <c r="O103" s="3" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="104" spans="1:15" ht="15.75">
       <c r="A104" s="3" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F104" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="H104" s="3">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I104" s="3">
-        <v>3200000</v>
+        <v>3000000</v>
       </c>
       <c r="J104" s="3">
-        <v>4700000</v>
+        <v>2400000</v>
       </c>
       <c r="K104" s="2">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="L104" s="2">
-        <v>34</v>
+        <v>440</v>
       </c>
       <c r="M104" s="3" t="b">
         <v>1</v>
@@ -5568,45 +5604,45 @@
         <v>1</v>
       </c>
       <c r="O104" s="3" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="105" spans="1:15" ht="15.75">
       <c r="A105" s="3" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="H105" s="3">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I105" s="3">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="J105" s="3">
-        <v>2500000</v>
+        <v>2700000</v>
       </c>
       <c r="K105" s="2">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="L105" s="2">
-        <v>452</v>
+        <v>328</v>
       </c>
       <c r="M105" s="3" t="b">
         <v>1</v>
@@ -5615,45 +5651,45 @@
         <v>1</v>
       </c>
       <c r="O105" s="3" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="106" spans="1:15" ht="15.75">
       <c r="A106" s="3" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="H106" s="3">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I106" s="3">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="J106" s="3">
-        <v>1900000</v>
+        <v>2400000</v>
       </c>
       <c r="K106" s="2">
-        <v>183</v>
+        <v>124</v>
       </c>
       <c r="L106" s="2">
-        <v>372</v>
+        <v>429</v>
       </c>
       <c r="M106" s="3" t="b">
         <v>1</v>
@@ -5662,45 +5698,45 @@
         <v>1</v>
       </c>
       <c r="O106" s="3" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="107" spans="1:15" ht="15.75">
       <c r="A107" s="3" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="H107" s="3">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I107" s="3">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="J107" s="3">
-        <v>1000000</v>
+        <v>2200000</v>
       </c>
       <c r="K107" s="2">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="L107" s="2">
-        <v>439</v>
+        <v>148</v>
       </c>
       <c r="M107" s="3" t="b">
         <v>1</v>
@@ -5709,45 +5745,45 @@
         <v>1</v>
       </c>
       <c r="O107" s="3" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="108" spans="1:15" ht="15.75">
       <c r="A108" s="3" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="H108" s="3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I108" s="3">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="J108" s="3">
-        <v>5600000</v>
+        <v>4100000</v>
       </c>
       <c r="K108" s="2">
-        <v>24</v>
+        <v>166</v>
       </c>
       <c r="L108" s="2">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="M108" s="3" t="b">
         <v>1</v>
@@ -5756,45 +5792,45 @@
         <v>1</v>
       </c>
       <c r="O108" s="3" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="109" spans="1:15" ht="15.75">
       <c r="A109" s="3" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F109" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H109" s="3">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I109" s="3">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="J109" s="3">
-        <v>2800000</v>
+        <v>1400000</v>
       </c>
       <c r="K109" s="2">
-        <v>187</v>
+        <v>35</v>
       </c>
       <c r="L109" s="2">
-        <v>31</v>
+        <v>142</v>
       </c>
       <c r="M109" s="3" t="b">
         <v>1</v>
@@ -5803,45 +5839,45 @@
         <v>1</v>
       </c>
       <c r="O109" s="3" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="110" spans="1:15" ht="15.75">
       <c r="A110" s="3" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F110" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H110" s="3">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I110" s="3">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="J110" s="3">
-        <v>3800000</v>
+        <v>5300000</v>
       </c>
       <c r="K110" s="2">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="L110" s="2">
-        <v>351</v>
+        <v>490</v>
       </c>
       <c r="M110" s="3" t="b">
         <v>1</v>
@@ -5850,45 +5886,45 @@
         <v>1</v>
       </c>
       <c r="O110" s="3" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="111" spans="1:15" ht="15.75">
       <c r="A111" s="3" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H111" s="3">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I111" s="3">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="J111" s="3">
-        <v>5600000</v>
+        <v>6000000</v>
       </c>
       <c r="K111" s="2">
-        <v>157</v>
+        <v>37</v>
       </c>
       <c r="L111" s="2">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="M111" s="3" t="b">
         <v>1</v>
@@ -5897,45 +5933,45 @@
         <v>1</v>
       </c>
       <c r="O111" s="3" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="112" spans="1:15" ht="15.75">
       <c r="A112" s="3" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="H112" s="3">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I112" s="3">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="J112" s="3">
-        <v>2000000</v>
+        <v>4700000</v>
       </c>
       <c r="K112" s="2">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="L112" s="2">
-        <v>257</v>
+        <v>479</v>
       </c>
       <c r="M112" s="3" t="b">
         <v>1</v>
@@ -5944,45 +5980,45 @@
         <v>1</v>
       </c>
       <c r="O112" s="3" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="113" spans="1:15" ht="15.75">
       <c r="A113" s="3" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="H113" s="3">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I113" s="3">
-        <v>1500000</v>
+        <v>3200000</v>
       </c>
       <c r="J113" s="3">
-        <v>4100000</v>
+        <v>4500000</v>
       </c>
       <c r="K113" s="2">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="L113" s="2">
-        <v>256</v>
+        <v>300</v>
       </c>
       <c r="M113" s="3" t="b">
         <v>1</v>
@@ -5991,45 +6027,45 @@
         <v>1</v>
       </c>
       <c r="O113" s="3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="114" spans="1:15" ht="15.75">
       <c r="A114" s="3" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="H114" s="3">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I114" s="3">
-        <v>1500000</v>
+        <v>3200000</v>
       </c>
       <c r="J114" s="3">
-        <v>2600000</v>
+        <v>1800000</v>
       </c>
       <c r="K114" s="2">
-        <v>7</v>
+        <v>111</v>
       </c>
       <c r="L114" s="2">
-        <v>473</v>
+        <v>63</v>
       </c>
       <c r="M114" s="3" t="b">
         <v>1</v>
@@ -6038,45 +6074,45 @@
         <v>1</v>
       </c>
       <c r="O114" s="3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="115" spans="1:15" ht="15.75">
       <c r="A115" s="3" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="H115" s="3">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I115" s="3">
         <v>1500000</v>
       </c>
       <c r="J115" s="3">
-        <v>5400000</v>
+        <v>2500000</v>
       </c>
       <c r="K115" s="2">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="L115" s="2">
-        <v>310</v>
+        <v>452</v>
       </c>
       <c r="M115" s="3" t="b">
         <v>1</v>
@@ -6085,45 +6121,45 @@
         <v>1</v>
       </c>
       <c r="O115" s="3" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="116" spans="1:15" ht="15.75">
       <c r="A116" s="3" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="H116" s="3">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I116" s="3">
         <v>1500000</v>
       </c>
       <c r="J116" s="3">
-        <v>1200000</v>
+        <v>1900000</v>
       </c>
       <c r="K116" s="2">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="L116" s="2">
-        <v>415</v>
+        <v>372</v>
       </c>
       <c r="M116" s="3" t="b">
         <v>1</v>
@@ -6132,45 +6168,45 @@
         <v>1</v>
       </c>
       <c r="O116" s="3" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="117" spans="1:15" ht="15.75">
       <c r="A117" s="3" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F117" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="H117" s="3">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I117" s="3">
         <v>1500000</v>
       </c>
       <c r="J117" s="3">
-        <v>5000000</v>
+        <v>1000000</v>
       </c>
       <c r="K117" s="2">
-        <v>187</v>
+        <v>124</v>
       </c>
       <c r="L117" s="2">
-        <v>183</v>
+        <v>439</v>
       </c>
       <c r="M117" s="3" t="b">
         <v>1</v>
@@ -6179,24 +6215,24 @@
         <v>1</v>
       </c>
       <c r="O117" s="3" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="118" spans="1:15" ht="15.75">
       <c r="A118" s="3" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D118" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F118" s="3" t="s">
         <v>25</v>
@@ -6205,19 +6241,19 @@
         <v>37</v>
       </c>
       <c r="H118" s="3">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I118" s="3">
         <v>1500000</v>
       </c>
       <c r="J118" s="3">
-        <v>2600000</v>
+        <v>5600000</v>
       </c>
       <c r="K118" s="2">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="L118" s="2">
-        <v>61</v>
+        <v>448</v>
       </c>
       <c r="M118" s="3" t="b">
         <v>1</v>
@@ -6226,45 +6262,45 @@
         <v>1</v>
       </c>
       <c r="O118" s="3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="119" spans="1:15" ht="15.75">
       <c r="A119" s="3" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D119" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F119" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="H119" s="3">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I119" s="3">
         <v>1500000</v>
       </c>
       <c r="J119" s="3">
-        <v>3700000</v>
+        <v>2000000</v>
       </c>
       <c r="K119" s="2">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="L119" s="2">
-        <v>415</v>
+        <v>257</v>
       </c>
       <c r="M119" s="3" t="b">
         <v>1</v>
@@ -6273,45 +6309,45 @@
         <v>1</v>
       </c>
       <c r="O119" s="3" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="120" spans="1:15" ht="15.75">
       <c r="A120" s="3" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D120" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="H120" s="3">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I120" s="3">
         <v>1500000</v>
       </c>
       <c r="J120" s="3">
-        <v>3100000</v>
+        <v>4100000</v>
       </c>
       <c r="K120" s="2">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="L120" s="2">
-        <v>304</v>
+        <v>256</v>
       </c>
       <c r="M120" s="3" t="b">
         <v>1</v>
@@ -6320,45 +6356,45 @@
         <v>1</v>
       </c>
       <c r="O120" s="3" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="121" spans="1:15" ht="15.75">
       <c r="A121" s="3" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D121" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F121" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="H121" s="3">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I121" s="3">
         <v>1500000</v>
       </c>
       <c r="J121" s="3">
-        <v>6000000</v>
+        <v>2600000</v>
       </c>
       <c r="K121" s="2">
-        <v>135</v>
+        <v>7</v>
       </c>
       <c r="L121" s="2">
-        <v>446</v>
+        <v>473</v>
       </c>
       <c r="M121" s="3" t="b">
         <v>1</v>
@@ -6367,45 +6403,45 @@
         <v>1</v>
       </c>
       <c r="O121" s="3" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="122" spans="1:15" ht="15.75">
       <c r="A122" s="3" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F122" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="H122" s="3">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I122" s="3">
         <v>1500000</v>
       </c>
       <c r="J122" s="3">
-        <v>5500000</v>
+        <v>2600000</v>
       </c>
       <c r="K122" s="2">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="L122" s="2">
-        <v>444</v>
+        <v>61</v>
       </c>
       <c r="M122" s="3" t="b">
         <v>1</v>
@@ -6414,45 +6450,45 @@
         <v>1</v>
       </c>
       <c r="O122" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="123" spans="1:15" ht="15.75">
       <c r="A123" s="3" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F123" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="H123" s="3">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I123" s="3">
         <v>1500000</v>
       </c>
       <c r="J123" s="3">
-        <v>1100000</v>
+        <v>3700000</v>
       </c>
       <c r="K123" s="2">
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="L123" s="2">
-        <v>76</v>
+        <v>415</v>
       </c>
       <c r="M123" s="3" t="b">
         <v>1</v>
@@ -6461,45 +6497,45 @@
         <v>1</v>
       </c>
       <c r="O123" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="124" spans="1:15" ht="15.75">
       <c r="A124" s="3" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="H124" s="3">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I124" s="3">
         <v>1500000</v>
       </c>
       <c r="J124" s="3">
-        <v>2900000</v>
+        <v>3100000</v>
       </c>
       <c r="K124" s="2">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="L124" s="2">
-        <v>37</v>
+        <v>304</v>
       </c>
       <c r="M124" s="3" t="b">
         <v>1</v>
@@ -6508,45 +6544,45 @@
         <v>1</v>
       </c>
       <c r="O124" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="125" spans="1:15" ht="15.75">
       <c r="A125" s="3" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F125" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H125" s="3">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I125" s="3">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="J125" s="3">
-        <v>4300000</v>
+        <v>6000000</v>
       </c>
       <c r="K125" s="2">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="L125" s="2">
-        <v>365</v>
+        <v>446</v>
       </c>
       <c r="M125" s="3" t="b">
         <v>1</v>
@@ -6555,24 +6591,24 @@
         <v>1</v>
       </c>
       <c r="O125" s="3" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="126" spans="1:15" ht="15.75">
       <c r="A126" s="3" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F126" s="3" t="s">
         <v>25</v>
@@ -6581,19 +6617,19 @@
         <v>21</v>
       </c>
       <c r="H126" s="3">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I126" s="3">
         <v>2000000</v>
       </c>
       <c r="J126" s="3">
-        <v>5900000</v>
+        <v>4300000</v>
       </c>
       <c r="K126" s="2">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="L126" s="2">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="M126" s="3" t="b">
         <v>1</v>
@@ -6602,24 +6638,24 @@
         <v>1</v>
       </c>
       <c r="O126" s="3" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="127" spans="1:15" ht="15.75">
       <c r="A127" s="3" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F127" s="3" t="s">
         <v>25</v>
@@ -6628,19 +6664,19 @@
         <v>21</v>
       </c>
       <c r="H127" s="3">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I127" s="3">
         <v>2000000</v>
       </c>
       <c r="J127" s="3">
-        <v>4500000</v>
+        <v>5900000</v>
       </c>
       <c r="K127" s="2">
-        <v>116</v>
+        <v>2</v>
       </c>
       <c r="L127" s="2">
-        <v>117</v>
+        <v>372</v>
       </c>
       <c r="M127" s="3" t="b">
         <v>1</v>
@@ -6649,24 +6685,24 @@
         <v>1</v>
       </c>
       <c r="O127" s="3" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="128" spans="1:15" ht="15.75">
       <c r="A128" s="3" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F128" s="3" t="s">
         <v>25</v>
@@ -6675,19 +6711,19 @@
         <v>21</v>
       </c>
       <c r="H128" s="3">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I128" s="3">
         <v>2000000</v>
       </c>
       <c r="J128" s="3">
-        <v>4300000</v>
+        <v>4500000</v>
       </c>
       <c r="K128" s="2">
         <v>116</v>
       </c>
       <c r="L128" s="2">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="M128" s="3" t="b">
         <v>1</v>
@@ -6696,24 +6732,24 @@
         <v>1</v>
       </c>
       <c r="O128" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15" ht="15.75">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" ht="18" customHeight="1">
       <c r="A129" s="3" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F129" s="3" t="s">
         <v>25</v>
@@ -6722,19 +6758,19 @@
         <v>21</v>
       </c>
       <c r="H129" s="3">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I129" s="3">
         <v>2000000</v>
       </c>
       <c r="J129" s="3">
-        <v>3500000</v>
+        <v>4300000</v>
       </c>
       <c r="K129" s="2">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="L129" s="2">
-        <v>219</v>
+        <v>12</v>
       </c>
       <c r="M129" s="3" t="b">
         <v>1</v>
@@ -6743,149 +6779,17 @@
         <v>1</v>
       </c>
       <c r="O129" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" ht="15.75">
-      <c r="A130" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E130" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G130" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H130" s="3">
-        <v>44</v>
-      </c>
-      <c r="I130" s="3">
-        <v>2000000</v>
-      </c>
-      <c r="J130" s="3">
-        <v>3100000</v>
-      </c>
-      <c r="K130" s="2">
-        <v>180</v>
-      </c>
-      <c r="L130" s="2">
-        <v>69</v>
-      </c>
-      <c r="M130" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N130" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O130" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" ht="15.75">
-      <c r="A131" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E131" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G131" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H131" s="3">
-        <v>45</v>
-      </c>
-      <c r="I131" s="3">
-        <v>2000000</v>
-      </c>
-      <c r="J131" s="3">
-        <v>3100000</v>
-      </c>
-      <c r="K131" s="2">
-        <v>19</v>
-      </c>
-      <c r="L131" s="2">
-        <v>188</v>
-      </c>
-      <c r="M131" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N131" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O131" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15" ht="15.75">
-      <c r="A132" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E132" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F132" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G132" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H132" s="3">
-        <v>46</v>
-      </c>
-      <c r="I132" s="3">
-        <v>2000000</v>
-      </c>
-      <c r="J132" s="3">
-        <v>1600000</v>
-      </c>
-      <c r="K132" s="2">
-        <v>3</v>
-      </c>
-      <c r="L132" s="2">
-        <v>415</v>
-      </c>
-      <c r="M132" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N132" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O132" s="3" t="s">
-        <v>78</v>
-      </c>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
+      <c r="A135" s="2"/>
+    </row>
+    <row r="136" spans="1:15">
+      <c r="A136" s="2"/>
+    </row>
+    <row r="137" spans="1:15">
+      <c r="A137" s="2"/>
     </row>
     <row r="138" spans="1:15">
       <c r="A138" s="2"/>
@@ -6922,12 +6826,15 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="2"/>
+      <c r="F149" s="7"/>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="2"/>
+      <c r="F150" s="7"/>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="2"/>
+      <c r="F151" s="7"/>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="2"/>
@@ -7386,15 +7293,12 @@
       <c r="F265" s="7"/>
     </row>
     <row r="266" spans="1:6">
-      <c r="A266" s="2"/>
       <c r="F266" s="7"/>
     </row>
     <row r="267" spans="1:6">
-      <c r="A267" s="2"/>
       <c r="F267" s="7"/>
     </row>
     <row r="268" spans="1:6">
-      <c r="A268" s="2"/>
       <c r="F268" s="7"/>
     </row>
     <row r="269" spans="1:6">
@@ -7429,15 +7333,6 @@
     </row>
     <row r="279" spans="6:6">
       <c r="F279" s="7"/>
-    </row>
-    <row r="280" spans="6:6">
-      <c r="F280" s="7"/>
-    </row>
-    <row r="281" spans="6:6">
-      <c r="F281" s="7"/>
-    </row>
-    <row r="282" spans="6:6">
-      <c r="F282" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/App_View/wwwroot/excel/template.xlsx
+++ b/App_View/wwwroot/excel/template.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27004"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27018"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="897" documentId="11_92480E3D80EBD8D2623DC6FA873E8C18510380D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0F37836-B019-4CC3-8ADD-69EBFF54843D}"/>
+  <xr:revisionPtr revIDLastSave="914" documentId="11_92480E3D80EBD8D2623DC6FA873E8C18510380D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A72EE6E-65DA-4882-BF90-172FBBD2C269}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="92">
   <si>
     <t>Tên SP</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Nổi bật</t>
+  </si>
+  <si>
+    <t>Trạng thái Sale</t>
   </si>
   <si>
     <t>Ảnh</t>
@@ -694,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O279"/>
+  <dimension ref="A1:P279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="O65" sqref="O65:O67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -715,11 +718,12 @@
     <col min="12" max="12" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.140625" style="3"/>
-    <col min="15" max="15" width="150.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="3"/>
+    <col min="15" max="15" width="15.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="150.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75">
+    <row r="1" spans="1:16" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -765,28 +769,31 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" s="2">
         <v>32</v>
@@ -809,31 +816,34 @@
       <c r="N2" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="H3" s="2">
         <v>33</v>
@@ -856,31 +866,34 @@
       <c r="N3" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="H4" s="2">
         <v>34</v>
@@ -903,31 +916,34 @@
       <c r="N4" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="O4" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="O4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H5" s="3">
         <v>40</v>
@@ -950,31 +966,34 @@
       <c r="N5" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="H6" s="3">
         <v>41</v>
@@ -997,31 +1016,34 @@
       <c r="N6" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="O6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="H7" s="3">
         <v>42</v>
@@ -1044,31 +1066,34 @@
       <c r="N7" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="O7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="H8" s="3">
         <v>43</v>
@@ -1091,31 +1116,34 @@
       <c r="N8" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="O8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H9" s="3">
         <v>40</v>
@@ -1138,31 +1166,34 @@
       <c r="N9" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="O9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="H10" s="3">
         <v>41</v>
@@ -1185,31 +1216,34 @@
       <c r="N10" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="O10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="H11" s="3">
         <v>42</v>
@@ -1232,31 +1266,34 @@
       <c r="N11" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="O11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="H12" s="3">
         <v>43</v>
@@ -1279,31 +1316,34 @@
       <c r="N12" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="O12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="H13" s="3">
         <v>44</v>
@@ -1326,31 +1366,34 @@
       <c r="N13" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="O13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="H14" s="3">
         <v>45</v>
@@ -1373,31 +1416,34 @@
       <c r="N14" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="19.5" customHeight="1">
+      <c r="O14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="19.5" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H15" s="3">
         <v>40</v>
@@ -1420,31 +1466,34 @@
       <c r="N15" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="O15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="19.5" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="H16" s="3">
         <v>41</v>
@@ -1467,31 +1516,34 @@
       <c r="N16" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="O16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="19.5" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="H17" s="3">
         <v>42</v>
@@ -1514,31 +1566,34 @@
       <c r="N17" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="O17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="19.5" customHeight="1">
+      <c r="A18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="H18" s="3">
         <v>43</v>
@@ -1561,31 +1616,34 @@
       <c r="N18" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="19.5" customHeight="1">
+      <c r="O18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="19.5" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H19" s="3">
         <v>40</v>
@@ -1608,31 +1666,34 @@
       <c r="N19" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="O19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="19.5" customHeight="1">
+      <c r="A20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="H20" s="3">
         <v>41</v>
@@ -1655,31 +1716,34 @@
       <c r="N20" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="O20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="19.5" customHeight="1">
+      <c r="A21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="H21" s="3">
         <v>42</v>
@@ -1702,31 +1766,34 @@
       <c r="N21" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="O21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H22" s="3">
         <v>40</v>
@@ -1749,31 +1816,34 @@
       <c r="N22" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="O22" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="G23" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H23" s="3">
         <v>41</v>
@@ -1796,31 +1866,34 @@
       <c r="N23" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O23" s="3" t="s">
+      <c r="O23" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="G24" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H24" s="3">
         <v>42</v>
@@ -1843,31 +1916,34 @@
       <c r="N24" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O24" s="3" t="s">
+      <c r="O24" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="G25" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H25" s="3">
         <v>43</v>
@@ -1890,31 +1966,34 @@
       <c r="N25" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O25" s="3" t="s">
+      <c r="O25" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="G26" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H26" s="3">
         <v>40</v>
@@ -1937,31 +2016,34 @@
       <c r="N26" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O26" s="3" t="s">
+      <c r="O26" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="H27" s="3">
         <v>41</v>
@@ -1984,31 +2066,34 @@
       <c r="N27" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O27" s="3" t="s">
+      <c r="O27" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="H28" s="3">
         <v>42</v>
@@ -2031,31 +2116,34 @@
       <c r="N28" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O28" s="3" t="s">
+      <c r="O28" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="H29" s="3">
         <v>43</v>
@@ -2078,31 +2166,34 @@
       <c r="N29" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="O29" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H30" s="3">
         <v>40</v>
@@ -2125,31 +2216,34 @@
       <c r="N30" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O30" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="O30" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H31" s="3">
         <v>41</v>
@@ -2172,31 +2266,34 @@
       <c r="N31" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O31" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+      <c r="O31" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H32" s="3">
         <v>42</v>
@@ -2219,31 +2316,34 @@
       <c r="N32" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+      <c r="O32" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H33" s="3">
         <v>43</v>
@@ -2266,31 +2366,34 @@
       <c r="N33" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
+      <c r="O33" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H34" s="3">
         <v>40</v>
@@ -2313,31 +2416,34 @@
       <c r="N34" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O34" s="3" t="s">
+      <c r="O34" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="B35" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H35" s="3">
         <v>41</v>
@@ -2360,31 +2466,34 @@
       <c r="N35" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O35" s="3" t="s">
+      <c r="O35" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="36" spans="1:15">
-      <c r="A36" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="B36" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H36" s="3">
         <v>42</v>
@@ -2407,31 +2516,34 @@
       <c r="N36" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O36" s="3" t="s">
+      <c r="O36" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="B37" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H37" s="3">
         <v>40</v>
@@ -2454,31 +2566,34 @@
       <c r="N37" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O37" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+      <c r="O37" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H38" s="3">
         <v>41</v>
@@ -2501,31 +2616,34 @@
       <c r="N38" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O38" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
+      <c r="O38" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H39" s="3">
         <v>42</v>
@@ -2548,31 +2666,34 @@
       <c r="N39" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O39" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+      <c r="O39" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H40" s="3">
         <v>44</v>
@@ -2595,31 +2716,34 @@
       <c r="N40" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O40" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
+      <c r="O40" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H41" s="3">
         <v>34</v>
@@ -2642,31 +2766,34 @@
       <c r="N41" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+      <c r="O41" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H42" s="3">
         <v>35</v>
@@ -2689,31 +2816,34 @@
       <c r="N42" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="18">
+      <c r="O42" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="18">
       <c r="A43" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H43" s="3">
         <v>34</v>
@@ -2736,31 +2866,34 @@
       <c r="N43" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O43" s="3" t="s">
+      <c r="O43" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="18">
+      <c r="A44" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" ht="18">
-      <c r="A44" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="F44" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H44" s="3">
         <v>35</v>
@@ -2783,31 +2916,34 @@
       <c r="N44" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O44" s="3" t="s">
+      <c r="O44" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="18">
+      <c r="A45" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" ht="18">
-      <c r="A45" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="F45" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H45" s="3">
         <v>36</v>
@@ -2830,31 +2966,34 @@
       <c r="N45" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O45" s="3" t="s">
+      <c r="O45" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="18">
+      <c r="A46" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" ht="18">
-      <c r="A46" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="F46" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H46" s="3">
         <v>37</v>
@@ -2877,31 +3016,34 @@
       <c r="N46" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O46" s="3" t="s">
+      <c r="O46" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="18">
+      <c r="A47" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" ht="18">
-      <c r="A47" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="F47" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H47" s="3">
         <v>33</v>
@@ -2924,31 +3066,34 @@
       <c r="N47" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="18">
+      <c r="O47" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="18">
       <c r="A48" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H48" s="3">
         <v>34</v>
@@ -2971,31 +3116,34 @@
       <c r="N48" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="18">
+      <c r="O48" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="18">
       <c r="A49" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H49" s="3">
         <v>35</v>
@@ -3018,31 +3166,34 @@
       <c r="N49" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="18">
+      <c r="O49" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="18">
       <c r="A50" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H50" s="3">
         <v>36</v>
@@ -3065,31 +3216,34 @@
       <c r="N50" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O50" s="3" t="s">
+      <c r="O50" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="18">
+      <c r="A51" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G51" s="3" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="18">
-      <c r="A51" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="H51" s="3">
         <v>37</v>
@@ -3112,31 +3266,34 @@
       <c r="N51" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O51" s="3" t="s">
+      <c r="O51" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="18">
+      <c r="A52" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G52" s="3" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="18">
-      <c r="A52" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="H52" s="3">
         <v>38</v>
@@ -3159,31 +3316,34 @@
       <c r="N52" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O52" s="3" t="s">
+      <c r="O52" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="18">
+      <c r="A53" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G53" s="3" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="18">
-      <c r="A53" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="H53" s="3">
         <v>39</v>
@@ -3206,31 +3366,34 @@
       <c r="N53" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O53" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="18">
+      <c r="O53" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="18">
       <c r="A54" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H54" s="3">
         <v>40</v>
@@ -3253,31 +3416,34 @@
       <c r="N54" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O54" s="3" t="s">
+      <c r="O54" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="18">
+      <c r="A55" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" ht="18">
-      <c r="A55" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="F55" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H55" s="3">
         <v>41</v>
@@ -3300,31 +3466,34 @@
       <c r="N55" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O55" s="3" t="s">
+      <c r="O55" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P55" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="18">
+      <c r="A56" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" ht="18">
-      <c r="A56" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="F56" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H56" s="3">
         <v>42</v>
@@ -3347,31 +3516,34 @@
       <c r="N56" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O56" s="3" t="s">
+      <c r="O56" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P56" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="18">
+      <c r="A57" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" ht="18">
-      <c r="A57" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="F57" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H57" s="3">
         <v>33</v>
@@ -3394,31 +3566,34 @@
       <c r="N57" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" ht="18">
+      <c r="O57" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="18">
       <c r="A58" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H58" s="3">
         <v>34</v>
@@ -3441,31 +3616,34 @@
       <c r="N58" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" ht="18">
+      <c r="O58" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="18">
       <c r="A59" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H59" s="3">
         <v>39</v>
@@ -3488,31 +3666,34 @@
       <c r="N59" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O59" s="3" t="s">
+      <c r="O59" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="18">
+      <c r="A60" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" ht="18">
-      <c r="A60" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="B60" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H60" s="3">
         <v>40</v>
@@ -3535,31 +3716,34 @@
       <c r="N60" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O60" s="3" t="s">
+      <c r="O60" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="18">
+      <c r="A61" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" ht="18">
-      <c r="A61" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="B61" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H61" s="3">
         <v>41</v>
@@ -3582,31 +3766,34 @@
       <c r="N61" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O61" s="3" t="s">
+      <c r="O61" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="18">
+      <c r="A62" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" ht="18">
-      <c r="A62" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="B62" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H62" s="3">
         <v>42</v>
@@ -3629,31 +3816,34 @@
       <c r="N62" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" ht="18">
+      <c r="O62" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="18">
       <c r="A63" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H63" s="3">
         <v>43</v>
@@ -3676,31 +3866,34 @@
       <c r="N63" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O63" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" ht="18">
+      <c r="O63" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="18">
       <c r="A64" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H64" s="3">
         <v>44</v>
@@ -3723,31 +3916,34 @@
       <c r="N64" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O64" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" ht="18">
+      <c r="O64" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="18">
       <c r="A65" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H65" s="3">
         <v>40</v>
@@ -3770,31 +3966,34 @@
       <c r="N65" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O65" s="3" t="s">
+      <c r="O65" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="18">
+      <c r="A66" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G66" s="3" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" ht="18">
-      <c r="A66" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="H66" s="3">
         <v>41</v>
@@ -3817,31 +4016,34 @@
       <c r="N66" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O66" s="3" t="s">
+      <c r="O66" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="18">
+      <c r="A67" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G67" s="3" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" ht="18">
-      <c r="A67" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="H67" s="3">
         <v>42</v>
@@ -3864,31 +4066,34 @@
       <c r="N67" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O67" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" ht="18">
+      <c r="O67" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P67" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="18">
       <c r="A68" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H68" s="3">
         <v>43</v>
@@ -3911,31 +4116,34 @@
       <c r="N68" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O68" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" ht="18">
+      <c r="O68" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="18">
       <c r="A69" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H69" s="3">
         <v>41</v>
@@ -3958,31 +4166,34 @@
       <c r="N69" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O69" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" ht="18">
+      <c r="O69" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="18">
       <c r="A70" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H70" s="3">
         <v>42</v>
@@ -4005,31 +4216,34 @@
       <c r="N70" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O70" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" ht="18">
+      <c r="O70" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" ht="18">
       <c r="A71" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H71" s="3">
         <v>43</v>
@@ -4052,31 +4266,34 @@
       <c r="N71" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O71" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" ht="18">
+      <c r="O71" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P71" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="18">
       <c r="A72" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H72" s="3">
         <v>40</v>
@@ -4099,31 +4316,34 @@
       <c r="N72" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" ht="18">
+      <c r="O72" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="18">
       <c r="A73" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H73" s="3">
         <v>41</v>
@@ -4146,31 +4366,34 @@
       <c r="N73" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O73" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" ht="18">
+      <c r="O73" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P73" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" ht="18">
       <c r="A74" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H74" s="3">
         <v>42</v>
@@ -4193,31 +4416,34 @@
       <c r="N74" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O74" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" ht="18">
+      <c r="O74" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P74" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" ht="18">
       <c r="A75" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H75" s="3">
         <v>40</v>
@@ -4240,31 +4466,34 @@
       <c r="N75" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O75" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" ht="18">
+      <c r="O75" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P75" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" ht="18">
       <c r="A76" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H76" s="3">
         <v>41</v>
@@ -4287,31 +4516,34 @@
       <c r="N76" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" ht="18">
+      <c r="O76" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="18">
       <c r="A77" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H77" s="3">
         <v>42</v>
@@ -4334,31 +4566,34 @@
       <c r="N77" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O77" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" ht="18">
+      <c r="O77" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P77" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" ht="18">
       <c r="A78" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H78" s="3">
         <v>34</v>
@@ -4381,31 +4616,34 @@
       <c r="N78" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O78" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" ht="18">
+      <c r="O78" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P78" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="18">
       <c r="A79" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H79" s="3">
         <v>35</v>
@@ -4428,31 +4666,34 @@
       <c r="N79" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O79" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" ht="18">
+      <c r="O79" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P79" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" ht="18">
       <c r="A80" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H80" s="3">
         <v>36</v>
@@ -4475,31 +4716,34 @@
       <c r="N80" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O80" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" ht="15.75">
+      <c r="O80" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P80" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" ht="15.75">
       <c r="A81" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H81" s="3">
         <v>33</v>
@@ -4522,31 +4766,34 @@
       <c r="N81" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O81" s="3" t="s">
+      <c r="O81" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" ht="15.75">
+      <c r="A82" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E82" s="5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" ht="15.75">
-      <c r="A82" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="F82" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H82" s="3">
         <v>34</v>
@@ -4569,31 +4816,34 @@
       <c r="N82" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O82" s="3" t="s">
+      <c r="O82" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P82" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" ht="15.75">
+      <c r="A83" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E83" s="5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" ht="15.75">
-      <c r="A83" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="F83" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H83" s="3">
         <v>35</v>
@@ -4616,31 +4866,34 @@
       <c r="N83" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O83" s="3" t="s">
+      <c r="O83" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" ht="15.75">
+      <c r="A84" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E84" s="5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" ht="15.75">
-      <c r="A84" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="F84" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H84" s="3">
         <v>36</v>
@@ -4663,31 +4916,34 @@
       <c r="N84" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O84" s="3" t="s">
+      <c r="O84" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P84" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" ht="15.75">
+      <c r="A85" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E85" s="5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" ht="15.75">
-      <c r="A85" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="F85" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H85" s="3">
         <v>40</v>
@@ -4710,31 +4966,34 @@
       <c r="N85" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O85" s="3" t="s">
+      <c r="O85" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P85" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" ht="15.75">
+      <c r="A86" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" ht="15.75">
-      <c r="A86" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="D86" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H86" s="3">
         <v>41</v>
@@ -4757,31 +5016,34 @@
       <c r="N86" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O86" s="3" t="s">
+      <c r="O86" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P86" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" ht="15.75">
+      <c r="A87" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" ht="15.75">
-      <c r="A87" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="D87" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H87" s="3">
         <v>42</v>
@@ -4804,31 +5066,34 @@
       <c r="N87" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O87" s="3" t="s">
+      <c r="O87" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P87" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" ht="15.75">
+      <c r="A88" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" ht="15.75">
-      <c r="A88" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="D88" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H88" s="3">
         <v>43</v>
@@ -4851,31 +5116,34 @@
       <c r="N88" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O88" s="3" t="s">
+      <c r="O88" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P88" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" ht="15.75">
+      <c r="A89" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" ht="15.75">
-      <c r="A89" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="D89" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H89" s="3">
         <v>40</v>
@@ -4898,31 +5166,34 @@
       <c r="N89" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O89" s="3" t="s">
+      <c r="O89" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" ht="15.75">
+      <c r="A90" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" ht="15.75">
-      <c r="A90" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="D90" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H90" s="3">
         <v>41</v>
@@ -4945,31 +5216,34 @@
       <c r="N90" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O90" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" ht="15.75">
+      <c r="O90" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P90" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" ht="15.75">
       <c r="A91" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H91" s="3">
         <v>42</v>
@@ -4992,31 +5266,34 @@
       <c r="N91" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" ht="15.75">
+      <c r="O91" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" ht="15.75">
       <c r="A92" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H92" s="3">
         <v>44</v>
@@ -5039,31 +5316,34 @@
       <c r="N92" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O92" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" ht="15.75">
+      <c r="O92" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" ht="15.75">
       <c r="A93" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H93" s="3">
         <v>40</v>
@@ -5086,31 +5366,34 @@
       <c r="N93" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O93" s="3" t="s">
+      <c r="O93" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" ht="15.75">
+      <c r="A94" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E94" s="6" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" ht="15.75">
-      <c r="A94" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>75</v>
-      </c>
       <c r="F94" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H94" s="3">
         <v>41</v>
@@ -5133,31 +5416,34 @@
       <c r="N94" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O94" s="3" t="s">
+      <c r="O94" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" ht="15.75">
+      <c r="A95" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E95" s="6" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" ht="15.75">
-      <c r="A95" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E95" s="6" t="s">
-        <v>75</v>
-      </c>
       <c r="F95" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H95" s="3">
         <v>42</v>
@@ -5180,31 +5466,34 @@
       <c r="N95" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O95" s="3" t="s">
+      <c r="O95" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P95" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" ht="15.75">
+      <c r="A96" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E96" s="6" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" ht="15.75">
-      <c r="A96" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E96" s="6" t="s">
-        <v>75</v>
-      </c>
       <c r="F96" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H96" s="3">
         <v>40</v>
@@ -5227,31 +5516,34 @@
       <c r="N96" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O96" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" ht="15.75">
+      <c r="O96" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" ht="15.75">
       <c r="A97" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H97" s="3">
         <v>41</v>
@@ -5274,31 +5566,34 @@
       <c r="N97" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O97" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" ht="15.75">
+      <c r="O97" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" ht="15.75">
       <c r="A98" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H98" s="3">
         <v>42</v>
@@ -5321,31 +5616,34 @@
       <c r="N98" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O98" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" ht="15.75">
+      <c r="O98" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" ht="15.75">
       <c r="A99" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H99" s="3">
         <v>43</v>
@@ -5368,31 +5666,34 @@
       <c r="N99" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O99" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" ht="15.75">
+      <c r="O99" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" ht="15.75">
       <c r="A100" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H100" s="3">
         <v>39</v>
@@ -5415,31 +5716,34 @@
       <c r="N100" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" ht="15.75">
+      <c r="O100" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" ht="15.75">
       <c r="A101" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H101" s="3">
         <v>40</v>
@@ -5462,31 +5766,34 @@
       <c r="N101" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" ht="15.75">
+      <c r="O101" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" ht="15.75">
       <c r="A102" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H102" s="3">
         <v>41</v>
@@ -5509,31 +5816,34 @@
       <c r="N102" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" ht="15.75">
+      <c r="O102" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" ht="15.75">
       <c r="A103" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H103" s="3">
         <v>40</v>
@@ -5556,31 +5866,34 @@
       <c r="N103" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O103" s="3" t="s">
+      <c r="O103" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P103" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" ht="15.75">
+      <c r="A104" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="104" spans="1:15" ht="15.75">
-      <c r="A104" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="B104" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H104" s="3">
         <v>41</v>
@@ -5603,31 +5916,34 @@
       <c r="N104" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O104" s="3" t="s">
+      <c r="O104" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P104" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" ht="15.75">
+      <c r="A105" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="105" spans="1:15" ht="15.75">
-      <c r="A105" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="B105" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H105" s="3">
         <v>42</v>
@@ -5650,31 +5966,34 @@
       <c r="N105" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O105" s="3" t="s">
+      <c r="O105" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P105" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" ht="15.75">
+      <c r="A106" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="106" spans="1:15" ht="15.75">
-      <c r="A106" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="B106" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H106" s="3">
         <v>43</v>
@@ -5697,31 +6016,34 @@
       <c r="N106" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O106" s="3" t="s">
+      <c r="O106" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P106" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" ht="15.75">
+      <c r="A107" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="107" spans="1:15" ht="15.75">
-      <c r="A107" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="B107" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H107" s="3">
         <v>44</v>
@@ -5744,31 +6066,34 @@
       <c r="N107" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O107" s="3" t="s">
+      <c r="O107" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P107" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" ht="15.75">
+      <c r="A108" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="108" spans="1:15" ht="15.75">
-      <c r="A108" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="B108" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H108" s="3">
         <v>45</v>
@@ -5791,31 +6116,34 @@
       <c r="N108" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O108" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" ht="15.75">
+      <c r="O108" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P108" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" ht="15.75">
       <c r="A109" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H109" s="3">
         <v>40</v>
@@ -5838,31 +6166,34 @@
       <c r="N109" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O109" s="3" t="s">
+      <c r="O109" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P109" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" ht="15.75">
+      <c r="A110" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" ht="15.75">
-      <c r="A110" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="B110" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H110" s="3">
         <v>41</v>
@@ -5885,31 +6216,34 @@
       <c r="N110" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O110" s="3" t="s">
+      <c r="O110" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P110" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" ht="15.75">
+      <c r="A111" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" ht="15.75">
-      <c r="A111" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="B111" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H111" s="3">
         <v>42</v>
@@ -5932,31 +6266,34 @@
       <c r="N111" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O111" s="3" t="s">
+      <c r="O111" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P111" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" ht="15.75">
+      <c r="A112" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" ht="15.75">
-      <c r="A112" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="B112" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H112" s="3">
         <v>43</v>
@@ -5979,31 +6316,34 @@
       <c r="N112" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O112" s="3" t="s">
+      <c r="O112" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P112" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" ht="15.75">
+      <c r="A113" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="113" spans="1:15" ht="15.75">
-      <c r="A113" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="B113" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H113" s="3">
         <v>40</v>
@@ -6026,31 +6366,34 @@
       <c r="N113" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O113" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" ht="15.75">
+      <c r="O113" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P113" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" ht="15.75">
       <c r="A114" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H114" s="3">
         <v>41</v>
@@ -6073,31 +6416,34 @@
       <c r="N114" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O114" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" ht="15.75">
+      <c r="O114" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P114" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" ht="15.75">
       <c r="A115" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H115" s="3">
         <v>40</v>
@@ -6120,31 +6466,34 @@
       <c r="N115" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O115" s="3" t="s">
+      <c r="O115" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P115" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" ht="15.75">
+      <c r="A116" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="116" spans="1:15" ht="15.75">
-      <c r="A116" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="B116" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H116" s="3">
         <v>41</v>
@@ -6167,31 +6516,34 @@
       <c r="N116" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O116" s="3" t="s">
+      <c r="O116" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P116" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" ht="15.75">
+      <c r="A117" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="117" spans="1:15" ht="15.75">
-      <c r="A117" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="B117" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H117" s="3">
         <v>42</v>
@@ -6214,31 +6566,34 @@
       <c r="N117" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O117" s="3" t="s">
+      <c r="O117" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P117" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" ht="15.75">
+      <c r="A118" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="118" spans="1:15" ht="15.75">
-      <c r="A118" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="B118" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H118" s="3">
         <v>43</v>
@@ -6261,31 +6616,34 @@
       <c r="N118" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O118" s="3" t="s">
+      <c r="O118" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P118" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" ht="15.75">
+      <c r="A119" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="119" spans="1:15" ht="15.75">
-      <c r="A119" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="B119" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H119" s="3">
         <v>40</v>
@@ -6308,31 +6666,34 @@
       <c r="N119" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O119" s="3" t="s">
+      <c r="O119" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P119" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" ht="15.75">
+      <c r="A120" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G120" s="3" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" ht="15.75">
-      <c r="A120" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E120" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G120" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="H120" s="3">
         <v>41</v>
@@ -6355,31 +6716,34 @@
       <c r="N120" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O120" s="3" t="s">
+      <c r="O120" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P120" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" ht="15.75">
+      <c r="A121" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G121" s="3" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" ht="15.75">
-      <c r="A121" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E121" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F121" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G121" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="H121" s="3">
         <v>42</v>
@@ -6402,31 +6766,34 @@
       <c r="N121" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O121" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" ht="15.75">
+      <c r="O121" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P121" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" ht="15.75">
       <c r="A122" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H122" s="3">
         <v>40</v>
@@ -6449,31 +6816,34 @@
       <c r="N122" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O122" s="3" t="s">
+      <c r="O122" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P122" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" ht="15.75">
+      <c r="A123" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="123" spans="1:15" ht="15.75">
-      <c r="A123" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="B123" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H123" s="3">
         <v>41</v>
@@ -6496,31 +6866,34 @@
       <c r="N123" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O123" s="3" t="s">
+      <c r="O123" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P123" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" ht="15.75">
+      <c r="A124" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="124" spans="1:15" ht="15.75">
-      <c r="A124" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="B124" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H124" s="3">
         <v>42</v>
@@ -6543,31 +6916,34 @@
       <c r="N124" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O124" s="3" t="s">
+      <c r="O124" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P124" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" ht="15.75">
+      <c r="A125" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="125" spans="1:15" ht="15.75">
-      <c r="A125" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="B125" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H125" s="3">
         <v>43</v>
@@ -6590,31 +6966,34 @@
       <c r="N125" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O125" s="3" t="s">
+      <c r="O125" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P125" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" ht="15.75">
+      <c r="A126" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="126" spans="1:15" ht="15.75">
-      <c r="A126" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="B126" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H126" s="3">
         <v>39</v>
@@ -6637,31 +7016,34 @@
       <c r="N126" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O126" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" ht="15.75">
+      <c r="O126" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P126" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" ht="15.75">
       <c r="A127" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H127" s="3">
         <v>40</v>
@@ -6684,31 +7066,34 @@
       <c r="N127" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O127" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" ht="15.75">
+      <c r="O127" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P127" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" ht="15.75">
       <c r="A128" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H128" s="3">
         <v>41</v>
@@ -6731,31 +7116,34 @@
       <c r="N128" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O128" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15" ht="18" customHeight="1">
+      <c r="O128" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P128" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" ht="18" customHeight="1">
       <c r="A129" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H129" s="3">
         <v>42</v>
@@ -6778,38 +7166,41 @@
       <c r="N129" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="O129" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15">
+      <c r="O129" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P129" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16">
       <c r="A135" s="2"/>
     </row>
-    <row r="136" spans="1:15">
+    <row r="136" spans="1:16">
       <c r="A136" s="2"/>
     </row>
-    <row r="137" spans="1:15">
+    <row r="137" spans="1:16">
       <c r="A137" s="2"/>
     </row>
-    <row r="138" spans="1:15">
+    <row r="138" spans="1:16">
       <c r="A138" s="2"/>
     </row>
-    <row r="139" spans="1:15">
+    <row r="139" spans="1:16">
       <c r="A139" s="2"/>
     </row>
-    <row r="140" spans="1:15">
+    <row r="140" spans="1:16">
       <c r="A140" s="2"/>
     </row>
-    <row r="141" spans="1:15">
+    <row r="141" spans="1:16">
       <c r="A141" s="2"/>
     </row>
-    <row r="142" spans="1:15">
+    <row r="142" spans="1:16">
       <c r="A142" s="2"/>
     </row>
-    <row r="143" spans="1:15">
+    <row r="143" spans="1:16">
       <c r="A143" s="2"/>
     </row>
-    <row r="144" spans="1:15">
+    <row r="144" spans="1:16">
       <c r="A144" s="2"/>
     </row>
     <row r="145" spans="1:6">
